--- a/Code/Failure_rate/2021/YTD/2021_YTD.xlsx
+++ b/Code/Failure_rate/2021/YTD/2021_YTD.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\project_files\USAI\Code\Failure_rate\2021\YTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6787E77-9CC7-4429-9210-E00BA3A14B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C757A60B-5B63-4E68-AC18-89B207955ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20550" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="2445" windowWidth="20550" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6111" uniqueCount="2040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6811" uniqueCount="2264">
   <si>
     <t>RMA_ID</t>
   </si>
@@ -6145,6 +6145,679 @@
   </si>
   <si>
     <t>RMA15756</t>
+  </si>
+  <si>
+    <t>RMA15988</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>RMA15987</t>
+  </si>
+  <si>
+    <t>RMA15986</t>
+  </si>
+  <si>
+    <t>MDG04-13H1-35KH-35-BL-BL-GT31-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DL FOR WOODWORKS 4 CELL 13W 3500K 90 CRI 35° BLACK-BLACK GT31 TRIM</t>
+  </si>
+  <si>
+    <t>RMA15985</t>
+  </si>
+  <si>
+    <t>SP-087-1400-2</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-BEVELED 6" PENDANT-33W-1400mA-120V-277V-DIML2-TR</t>
+  </si>
+  <si>
+    <t>RMA15984</t>
+  </si>
+  <si>
+    <t>RMA15983</t>
+  </si>
+  <si>
+    <t>RMA15981</t>
+  </si>
+  <si>
+    <t>RMA15980</t>
+  </si>
+  <si>
+    <t>P3RAF-18DW1-3018KH-35-NC-120V-D21-HSG-MOD1</t>
+  </si>
+  <si>
+    <t>PRIMARY MINI RD ADJ TRMD 18W DIM WARM 30-18 90CRI 35° BEAM NC HSG 120V D21 MOD=OPTIC WATT 21-007</t>
+  </si>
+  <si>
+    <t>RMA15978</t>
+  </si>
+  <si>
+    <t>RMA15976</t>
+  </si>
+  <si>
+    <t>RMA15974</t>
+  </si>
+  <si>
+    <t>RMA15973</t>
+  </si>
+  <si>
+    <t>RMA15972</t>
+  </si>
+  <si>
+    <t>2151W-B1-10</t>
+  </si>
+  <si>
+    <t>BEVELED MINI TRIMMED SQUARE WET WALL WASH-DIE CAST BEVEL WHITE</t>
+  </si>
+  <si>
+    <t>RMA15971</t>
+  </si>
+  <si>
+    <t>B3SAL-20WG2-3022KH-30-NCIC-UNV-D4P-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ ADJ TRML 20W WARM GLOW 30-22K 90CRI 30° BEAM NCIC HSG 120-277V D4P</t>
+  </si>
+  <si>
+    <t>RMA15970</t>
+  </si>
+  <si>
+    <t>MWF08-27H1-30KH-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>MICRO WALL WASH FLANGE 8 CELL 27W 3000KH WHITE-WHITE-TRIM</t>
+  </si>
+  <si>
+    <t>RMA15969</t>
+  </si>
+  <si>
+    <t>RMA15968</t>
+  </si>
+  <si>
+    <t>SP-142-0700-6B</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.1 FOR FT-HSG 16W 700mA-120V-277V DIML6B-EL</t>
+  </si>
+  <si>
+    <t>RMA15967</t>
+  </si>
+  <si>
+    <t>MDF08-27H1-NC-120V-D19-HSG</t>
+  </si>
+  <si>
+    <t>MICRO DOWNLIGHT FLANGE 8 CELL 27W NC 120V DIML19-HSG</t>
+  </si>
+  <si>
+    <t>MAF04-13H1-NC-120V-D19-HSG</t>
+  </si>
+  <si>
+    <t>MICRO ADJ FLANGE 4 CELL 13W NC 120V DIML19-HSG</t>
+  </si>
+  <si>
+    <t>MDF04-13H1-NC-120V-D19-HSG</t>
+  </si>
+  <si>
+    <t>MICRO DOWNLIGHT FLANGE 4 CELL 13W NC 120V DIML19-HSG</t>
+  </si>
+  <si>
+    <t>RMA15965</t>
+  </si>
+  <si>
+    <t>LEM-281-00-2722KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT SLIVERLED WGD HI CRI 2700-2200K</t>
+  </si>
+  <si>
+    <t>RMA15964</t>
+  </si>
+  <si>
+    <t>LED-293-S00-30B</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE-(12) XPL-2 34-38V, STD CRI-3000K</t>
+  </si>
+  <si>
+    <t>RMA15963</t>
+  </si>
+  <si>
+    <t>B4RDF-S-WH-WH-TRM-MOD3</t>
+  </si>
+  <si>
+    <t>BEVELED ROUND TRMD DL/ADJ SOLITE LENS WHITE TRIM-MOD=5/16” FLANGE WIDTH (REF. 19-110)</t>
+  </si>
+  <si>
+    <t>RMA15962</t>
+  </si>
+  <si>
+    <t>RMA15961</t>
+  </si>
+  <si>
+    <t>RMA15960</t>
+  </si>
+  <si>
+    <t>UA2</t>
+  </si>
+  <si>
+    <t>GRID MOUNT BAR SET 16-24"</t>
+  </si>
+  <si>
+    <t>RMA15959</t>
+  </si>
+  <si>
+    <t>B4RAL-25-SF-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED ROUND TRML DL/ADJ SOLITE FROSTED LENS WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA15957</t>
+  </si>
+  <si>
+    <t>RMA15956</t>
+  </si>
+  <si>
+    <t>RMA15955</t>
+  </si>
+  <si>
+    <t>RMA15953</t>
+  </si>
+  <si>
+    <t>RMA15952</t>
+  </si>
+  <si>
+    <t>USAI-3DLA1-RFSWH-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAVANT/USAI RECESS 3 ADJ RND TRMD SOLITE LENS WHITE TRM_x000D_
+</t>
+  </si>
+  <si>
+    <t>RMA15950</t>
+  </si>
+  <si>
+    <t>LEM-326-00-40KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 BASIC 9-24W 80CRI  4000K</t>
+  </si>
+  <si>
+    <t>RMA15949</t>
+  </si>
+  <si>
+    <t>RMA15948</t>
+  </si>
+  <si>
+    <t>RMA15945</t>
+  </si>
+  <si>
+    <t>RMA15944</t>
+  </si>
+  <si>
+    <t>LEM-293-00-30KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 36W 90CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA15943</t>
+  </si>
+  <si>
+    <t>RMA15942</t>
+  </si>
+  <si>
+    <t>B4SDF-S-WH-TRM</t>
+  </si>
+  <si>
+    <t>RMA15941</t>
+  </si>
+  <si>
+    <t>SP-189-0350-19</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT SLIVERLED 350mA-DIML19-HT</t>
+  </si>
+  <si>
+    <t>LEM-274-00-35KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT SLIVERLED HI CRI 3500K</t>
+  </si>
+  <si>
+    <t>SP-262-0700-19</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-MICRO TRML NC 21-41W 700mA DIML19-HT</t>
+  </si>
+  <si>
+    <t>MAF12-41H1-35KH-30-WH-WH-NC-TRM</t>
+  </si>
+  <si>
+    <t>MICRO ADJUSTABLE FLANGE 12 CELL 41W 3500K 90 CRI 30° WHITE-WHITE NC TRIM</t>
+  </si>
+  <si>
+    <t>RMA15940</t>
+  </si>
+  <si>
+    <t>RMA15939</t>
+  </si>
+  <si>
+    <t>MWL12-41H1-30KH-WH-TRM</t>
+  </si>
+  <si>
+    <t>MICRO WALL WASH TRIMLESS 12 CELL 41W 3000KH WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA15938</t>
+  </si>
+  <si>
+    <t>SP-420-0350-21</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENTMINI PRIMARY EC 15W 350mA D21</t>
+  </si>
+  <si>
+    <t>RMA15937</t>
+  </si>
+  <si>
+    <t>SP-317-0700-6F</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NC HSG 16W 700mA 120V-277V ELDO 1% LOG DIM</t>
+  </si>
+  <si>
+    <t>RMA15936</t>
+  </si>
+  <si>
+    <t>H2-848-F021</t>
+  </si>
+  <si>
+    <t>1/4" IPS SWIVEL, FIELD CUT STEM, BLACK</t>
+  </si>
+  <si>
+    <t>RMA15935</t>
+  </si>
+  <si>
+    <t>SP-154-0350-19</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED MINI RT/NCSL 20W-350mA-120V-277V-DIML19-HT</t>
+  </si>
+  <si>
+    <t>RMA15934</t>
+  </si>
+  <si>
+    <t>CMRD10-20X3-30KH-55-S-WH-CJ3-UNV-D22</t>
+  </si>
+  <si>
+    <t>BEVELED MINI CYL RD DL 20W WHITE 10" 3000KH 55° SOC CJ3 UNV DIML22</t>
+  </si>
+  <si>
+    <t>RMA15933</t>
+  </si>
+  <si>
+    <t>SP-120-1300-4</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 6" DL 80W 1300mA 120V-277V DIML4-LU</t>
+  </si>
+  <si>
+    <t>RMA15932</t>
+  </si>
+  <si>
+    <t>RMA15931</t>
+  </si>
+  <si>
+    <t>RMA15930</t>
+  </si>
+  <si>
+    <t>SP-062-0500-4H</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED BASIC NCSM HSG 20 WATT 500mA-120V-277V-DIML4H-LU</t>
+  </si>
+  <si>
+    <t>RMA15929</t>
+  </si>
+  <si>
+    <t>RMA15928</t>
+  </si>
+  <si>
+    <t>RMA15927</t>
+  </si>
+  <si>
+    <t>RMA15926</t>
+  </si>
+  <si>
+    <t>LEM-239-00-30KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 ADJ 90+CRI 3000K-WIDE ARRAY</t>
+  </si>
+  <si>
+    <t>RMA15925</t>
+  </si>
+  <si>
+    <t>SP-154-0350-2</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED MINI RT/NCSL 14W 350mA 120V-277V-DIML2-TR</t>
+  </si>
+  <si>
+    <t>RMA15924</t>
+  </si>
+  <si>
+    <t>RMA15923</t>
+  </si>
+  <si>
+    <t>3110-B2-S-10</t>
+  </si>
+  <si>
+    <t>BEVELED 2.1 SQR TRIMMED DOWNLIGHT-DEEP REGRESS DIE CAST BEVEL WHITE-SOLITE LENS</t>
+  </si>
+  <si>
+    <t>RMA15922</t>
+  </si>
+  <si>
+    <t>SP-324-0350-22</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT DRIVER - REPLACEMENT MINI X FTA-0350mA 120V-277V DIML22-TR</t>
+  </si>
+  <si>
+    <t>SP-324-0500-22</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT DRIVER-REPLACEMENT MINI X FTA-500mA 120V-277V DIML22-ER</t>
+  </si>
+  <si>
+    <t>RMA15921</t>
+  </si>
+  <si>
+    <t>RMA15920</t>
+  </si>
+  <si>
+    <t>LED-319-H01-30B</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE- (1) LUMILEDS CX 12MM 36V, 2 STEP 90 + CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA15919</t>
+  </si>
+  <si>
+    <t>RMA15918</t>
+  </si>
+  <si>
+    <t>RMA15917</t>
+  </si>
+  <si>
+    <t>LEM-281-00-3022KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT SLIVERLED WGD STD CRI 3000-2200K</t>
+  </si>
+  <si>
+    <t>RMA15916</t>
+  </si>
+  <si>
+    <t>RMA15915</t>
+  </si>
+  <si>
+    <t>RMA15914</t>
+  </si>
+  <si>
+    <t>B3RAL-15X3-30KH-45-NC1-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD ADJ TRML 15W CLASSIC 30K 90CRI 45° BEAM NC1 HSG 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA15913</t>
+  </si>
+  <si>
+    <t>RMA15912</t>
+  </si>
+  <si>
+    <t>USAI-4DLD1IC-FC1IX32D23-SFM-00</t>
+  </si>
+  <si>
+    <t>RECESS 4.5 SQ DL TRMD 32W INFINITE COLOR+ 70° BEAM NCIC HSG 120-277V DMX 0.1% DIM RJ45</t>
+  </si>
+  <si>
+    <t>RMA15911</t>
+  </si>
+  <si>
+    <t>RMA15910</t>
+  </si>
+  <si>
+    <t>RMA15909</t>
+  </si>
+  <si>
+    <t>RMA15907</t>
+  </si>
+  <si>
+    <t>RMA15906</t>
+  </si>
+  <si>
+    <t>SP-373-0700-3-MOD1</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NCSM 700mA DIML3 LU C3 TO E1</t>
+  </si>
+  <si>
+    <t>RMA15905</t>
+  </si>
+  <si>
+    <t>B3SGL-30-S-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRML 30° SLOPED SOLITE CLEAR LENS WHITE BEVEL</t>
+  </si>
+  <si>
+    <t>RMA15904</t>
+  </si>
+  <si>
+    <t>RMA15903</t>
+  </si>
+  <si>
+    <t>LED-319-H00-30B</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE- (1) CREE CMA1825 36V BIN: 0A, 2 STEP 90 + CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA15902</t>
+  </si>
+  <si>
+    <t>RMA15901</t>
+  </si>
+  <si>
+    <t>RMA15900</t>
+  </si>
+  <si>
+    <t>CMRD8-15X3-35KS-40-S-WH-SM-UNV-D22</t>
+  </si>
+  <si>
+    <t>BEVELED MINI CYL RD DL 15W WHITE 8" 3500KS 40° SOC SM UNV DIML22</t>
+  </si>
+  <si>
+    <t>RMA15899</t>
+  </si>
+  <si>
+    <t>RMA15898</t>
+  </si>
+  <si>
+    <t>RMA15896</t>
+  </si>
+  <si>
+    <t>RMA15895</t>
+  </si>
+  <si>
+    <t>SP-317-1050-28</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NC HSG C3 24W 1050mA 120V-277V ELDO DMX 0.1%</t>
+  </si>
+  <si>
+    <t>RMA15894</t>
+  </si>
+  <si>
+    <t>RMA15893</t>
+  </si>
+  <si>
+    <t>RMA15891</t>
+  </si>
+  <si>
+    <t>RMA15890</t>
+  </si>
+  <si>
+    <t>MDF02-08H1-27KH-35-WH-WH-TRM-MODSAV</t>
+  </si>
+  <si>
+    <t>MICRO DOWNLIGHT FLANGE 2 CELL 8W 2700KH 35° WHITE-WHITE TRIM-MOD=SAVANT</t>
+  </si>
+  <si>
+    <t>RMA15889</t>
+  </si>
+  <si>
+    <t>RMA15888</t>
+  </si>
+  <si>
+    <t>RMA15887</t>
+  </si>
+  <si>
+    <t>RMA15886</t>
+  </si>
+  <si>
+    <t>SP-312-0700-6F</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 FT HSG 16W 700mA 120V-277V ELDO 1% LOG DIM</t>
+  </si>
+  <si>
+    <t>RMA15885</t>
+  </si>
+  <si>
+    <t>B4RDL-S-BL-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED ROUND TRML DL/ADJ SOLITE LENS BLACK TRIM</t>
+  </si>
+  <si>
+    <t>RMA15883</t>
+  </si>
+  <si>
+    <t>RMA15882</t>
+  </si>
+  <si>
+    <t>LSTD4-9020-M2-35KS-80-NCSM-120V-DIML2-EML</t>
+  </si>
+  <si>
+    <t>BEVELED BASIC SQUARE TRIMMED 20W-3500KS-80° DOWNLIGHT NEW CONSTRUCTION SMALL HSG-120V-DIML2-EMLR</t>
+  </si>
+  <si>
+    <t>LSTD4-9020-M2-35KS-80-NCSM-120V-DIML2</t>
+  </si>
+  <si>
+    <t>BEVELED BASIC SQUARE TRIMMED 20W-3500KS-80° DOWNLIGHT NEW CONSTRUCTION SMALL HSG-120V-DIML2</t>
+  </si>
+  <si>
+    <t>RMA15881</t>
+  </si>
+  <si>
+    <t>SP-059-0700-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.0  WGD/CCD 32 WATT 700mA 120V-277V DIML6E-EL</t>
+  </si>
+  <si>
+    <t>LEM-198-32-2722KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BEVELED 2.0 WGD/CCD 32W STD CRI 2700-2200KS</t>
+  </si>
+  <si>
+    <t>LEM-234-00-2722KS-W1</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BEVELED 5.0 WGD CRI 2700-2200K-WALLWASH W1</t>
+  </si>
+  <si>
+    <t>SP-252-1-1300</t>
+  </si>
+  <si>
+    <t>REPLACEMENT CONTROLLER-WGD 5.0 1300mA W/CAP</t>
+  </si>
+  <si>
+    <t>SP-218-1300-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 5.0 WGD 80W 1300mA 120V-277V-DIML6E-EL</t>
+  </si>
+  <si>
+    <t>RMA15880</t>
+  </si>
+  <si>
+    <t>RMA15879</t>
+  </si>
+  <si>
+    <t>RMA15878</t>
+  </si>
+  <si>
+    <t>SP-059-0700-4</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.0  WGD/CCD/CSD 32 WATT 700mA 120V-277V DIML4-LU</t>
+  </si>
+  <si>
+    <t>RMA15877</t>
+  </si>
+  <si>
+    <t>RMA15876</t>
+  </si>
+  <si>
+    <t>RMA15875</t>
+  </si>
+  <si>
+    <t>LEM-307-00-40KH</t>
+  </si>
+  <si>
+    <t>RMA15872</t>
+  </si>
+  <si>
+    <t>RMA15871</t>
+  </si>
+  <si>
+    <t>RMA15870</t>
+  </si>
+  <si>
+    <t>RMA15869</t>
+  </si>
+  <si>
+    <t>SP-241-1000-6F</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-BEVELED BLOCK 24W 1000mA 120V-277V DIML6F</t>
+  </si>
+  <si>
+    <t>RMA15867</t>
+  </si>
+  <si>
+    <t>RMA15865</t>
+  </si>
+  <si>
+    <t>RMA15864</t>
+  </si>
+  <si>
+    <t>SP-033-0500-6F</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT NANO MTG-2 20W-500mA 120V-277V DIML6F-EL</t>
   </si>
 </sst>
 </file>
@@ -6510,13 +7183,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1222"/>
+  <dimension ref="A1:F1362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1075" workbookViewId="0">
-      <selection activeCell="A1095" sqref="A1095:F1222"/>
+    <sheetView tabSelected="1" topLeftCell="A1205" workbookViewId="0">
+      <selection activeCell="L1214" sqref="L1214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -30956,6 +31632,2806 @@
       </c>
       <c r="F1222" s="2" t="s">
         <v>1870</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1223" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1223" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C1223" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1223" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1224" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B1224" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1224" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1224" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E1224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1225" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1225" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1225" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E1225" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1226" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1226" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1226" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1226" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1227" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1227" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C1227" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1227" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E1227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1228" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1228" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1228" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1228" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E1228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1229" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1229" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1229" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1229" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1230" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1230" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1230" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1230" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1231" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1231" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C1231" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1231" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E1231" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1232" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1232" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C1232" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1232" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E1232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1233" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1233" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1233" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1233" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1234" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1234" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1234" s="1">
+        <v>26</v>
+      </c>
+      <c r="D1234" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1235" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1235" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1235" s="1">
+        <v>12</v>
+      </c>
+      <c r="D1235" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1236" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1236" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1236" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1236" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E1236" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1237" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1237" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C1237" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1237" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E1237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1238" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1238" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C1238" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1238" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E1238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1239" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1239" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C1239" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1239" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E1239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1240" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B1240" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1240" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1240" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E1240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1241" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B1241" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1241" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1241" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1242" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1242" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1242" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1242" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E1242" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1243" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1243" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1243" s="1">
+        <v>11</v>
+      </c>
+      <c r="D1243" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E1243" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1244" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1244" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1244" s="1">
+        <v>36</v>
+      </c>
+      <c r="D1244" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E1244" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1245" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1245" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1245" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1245" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E1245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1246" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B1246" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1246" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1246" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E1246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1247" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1247" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1247" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1247" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E1247" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1248" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1248" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C1248" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1248" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E1248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1249" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1249" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1249" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1249" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1250" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1250" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1250" s="1">
+        <v>38</v>
+      </c>
+      <c r="D1250" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E1250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1251" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B1251" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1251" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1251" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E1251" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1252" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B1252" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1252" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1252" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1253" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B1253" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1253" s="1">
+        <v>14</v>
+      </c>
+      <c r="D1253" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1254" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1254" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C1254" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1254" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E1254" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1255" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1255" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C1255" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1255" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E1255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1256" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1256" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C1256" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1256" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E1256" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1257" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1257" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1257" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1257" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1258" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1258" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C1258" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1258" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E1258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1259" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B1259" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C1259" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1259" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E1259" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1260" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1260" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C1260" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1260" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E1260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1261" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1261" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1261" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1261" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1262" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B1262" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C1262" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1262" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E1262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1263" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1263" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C1263" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1263" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E1263" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1264" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1264" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C1264" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1264" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E1264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1265" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1265" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C1265" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1265" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E1265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1266" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B1266" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1266" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1266" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1266" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1267" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1267" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C1267" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1267" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1267" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1268" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1268" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C1268" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1268" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E1268" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1269" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1269" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C1269" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1269" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E1269" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1270" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1270" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C1270" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1270" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E1270" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1271" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1271" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C1271" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1271" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E1271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1272" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B1272" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1272" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1272" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E1272" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1272" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1273" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1273" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C1273" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1273" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E1273" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1274" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1274" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C1274" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1274" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E1274" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1275" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1275" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1275" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1275" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1275" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1276" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1276" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C1276" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1276" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1276" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1277" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1277" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C1277" s="1">
+        <v>25</v>
+      </c>
+      <c r="D1277" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E1277" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1278" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1278" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1278" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1278" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1279" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1279" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C1279" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1279" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E1279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1280" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B1280" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C1280" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1280" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E1280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1280" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1281" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1281" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C1281" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1281" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E1281" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1281" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1282" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1282" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1282" s="1">
+        <v>7</v>
+      </c>
+      <c r="D1282" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1282" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1282" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1283" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1283" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1283" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1283" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E1283" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1283" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1284" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B1284" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1284" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1284" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E1284" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1284" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1285" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1285" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1285" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1285" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1285" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1285" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1286" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B1286" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1286" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1286" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1286" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1287" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1287" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1287" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1287" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1287" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1287" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1288" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1288" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1288" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1288" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1288" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1289" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B1289" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1289" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1289" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E1289" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1290" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1290" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1290" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1290" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1290" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1290" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1291" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1291" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C1291" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1291" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E1291" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1292" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B1292" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1292" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1292" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1293" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B1293" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1293" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1293" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E1293" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1294" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B1294" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C1294" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1294" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E1294" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1295" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B1295" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1295" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1295" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1295" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1296" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B1296" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C1296" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1296" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E1296" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1296" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1297" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B1297" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C1297" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1297" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E1297" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1298" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B1298" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1298" s="1">
+        <v>45</v>
+      </c>
+      <c r="D1298" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1298" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1298" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1299" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B1299" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C1299" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1299" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E1299" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1299" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1300" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B1300" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1300" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1300" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1300" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1301" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B1301" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1301" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1301" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1301" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1301" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1302" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B1302" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C1302" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1302" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E1302" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1302" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1303" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B1303" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1303" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1303" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1303" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1303" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1304" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1304" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1304" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1304" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1304" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1305" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B1305" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C1305" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1305" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E1305" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1306" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1306" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C1306" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1306" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E1306" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1307" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B1307" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C1307" s="1">
+        <v>17</v>
+      </c>
+      <c r="D1307" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E1307" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1307" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1308" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B1308" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C1308" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1308" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="E1308" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1308" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1309" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1309" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C1309" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1309" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E1309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1309" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1310" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1310" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C1310" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1310" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E1310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1310" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1311" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1311" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C1311" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1311" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E1311" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1312" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B1312" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1312" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1312" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1312" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1313" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B1313" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C1313" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1313" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E1313" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1313" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1314" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B1314" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C1314" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1314" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E1314" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1314" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1315" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B1315" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C1315" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1315" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E1315" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1315" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1316" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B1316" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C1316" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1316" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E1316" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1316" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1317" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B1317" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1317" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1317" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1317" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1317" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1318" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1318" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C1318" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1318" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="E1318" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1318" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1319" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1319" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1319" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1319" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1319" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1319" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1320" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1320" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1320" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1320" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1320" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1320" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1321" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B1321" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1321" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1321" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1321" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1322" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B1322" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1322" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1322" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1322" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1323" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B1323" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C1323" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1323" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E1323" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1324" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B1324" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1324" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1324" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1324" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1325" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1325" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C1325" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1325" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E1325" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1326" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1326" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1326" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1326" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1326" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1327" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B1327" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C1327" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1327" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E1327" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1328" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1328" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C1328" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1328" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E1328" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1328" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1329" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B1329" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C1329" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1329" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1329" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1330" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B1330" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C1330" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1330" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E1330" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1331" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1331" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C1331" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1331" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E1331" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1332" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B1332" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C1332" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1332" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E1332" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1333" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1333" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1333" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1333" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1334" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B1334" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1334" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1334" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1334" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1334" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1335" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1335" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1335" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1335" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1335" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1335" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1336" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B1336" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1336" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1336" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E1336" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1336" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1337" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B1337" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1337" s="1">
+        <v>13</v>
+      </c>
+      <c r="D1337" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E1337" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1337" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1338" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B1338" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1338" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1338" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1338" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1338" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1339" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1339" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C1339" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1339" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E1339" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1339" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1340" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1340" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C1340" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1340" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E1340" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1340" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1341" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1341" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1341" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1341" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E1341" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1341" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1342" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1342" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C1342" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1342" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E1342" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1342" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1343" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1343" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C1343" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1343" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1343" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1343" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1344" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1344" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C1344" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1344" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E1344" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1344" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1345" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1345" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1345" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1345" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E1345" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1345" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1346" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B1346" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1346" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1346" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1346" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1347" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B1347" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1347" s="1">
+        <v>11</v>
+      </c>
+      <c r="D1347" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1347" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1347" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1348" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B1348" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1348" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1348" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E1348" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1348" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1349" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B1349" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1349" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1349" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E1349" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1349" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1350" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B1350" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1350" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1350" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1350" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1351" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B1351" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1351" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1351" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E1351" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1351" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1352" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B1352" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C1352" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1352" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E1352" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1352" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1353" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B1353" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1353" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1353" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1353" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1354" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B1354" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1354" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1354" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1354" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1355" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C1355" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1355" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E1355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1356" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B1356" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1356" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1356" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E1356" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1357" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B1357" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1357" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1357" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1357" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1357" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1358" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B1358" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1358" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1358" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E1358" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1359" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B1359" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C1359" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1359" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1360" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1360" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1360" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1360" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1361" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B1361" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1361" s="1">
+        <v>15</v>
+      </c>
+      <c r="D1361" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1361" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1362" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B1362" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1362" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1362" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E1362" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1362" t="s">
+        <v>2041</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Failure_rate/2021/YTD/2021_YTD.xlsx
+++ b/Code/Failure_rate/2021/YTD/2021_YTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\project_files\USAI\Code\Failure_rate\2021\YTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C757A60B-5B63-4E68-AC18-89B207955ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5107A9-ADAF-4B35-B6A6-A049EDD344D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="2445" windowWidth="20550" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="1275" windowWidth="20550" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6811" uniqueCount="2264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7486" uniqueCount="2456">
   <si>
     <t>RMA_ID</t>
   </si>
@@ -6818,6 +6818,584 @@
   </si>
   <si>
     <t>DRIVER REPLACEMENT NANO MTG-2 20W-500mA 120V-277V DIML6F-EL</t>
+  </si>
+  <si>
+    <t>RMA16099</t>
+  </si>
+  <si>
+    <t>SP-335-01-RD-F-M-21</t>
+  </si>
+  <si>
+    <t>BVLED 4"NC UNV ADPT CONVERSION KIT- RND FLANGED/TRIMLESS TO MLWK-BLACK</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>RMA16098</t>
+  </si>
+  <si>
+    <t>MWF12-41H1-35KS-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>MICRO WALL WASH FLANGE 12 CELL 41W 3500KS WHITE-WHITE-TRIM</t>
+  </si>
+  <si>
+    <t>RMA16097</t>
+  </si>
+  <si>
+    <t>RMA16096</t>
+  </si>
+  <si>
+    <t>RMA16095</t>
+  </si>
+  <si>
+    <t>CBRC12-24C3-30KS-45-S-BL-AR3-UNV-D6A</t>
+  </si>
+  <si>
+    <t>2.2 CYLINDER RD CROSS BAFF 24W CW 3000KS 45° BEAM-SOLITE LENS-BLACK-AR MOUNT 96" 120-277V D6A</t>
+  </si>
+  <si>
+    <t>RMA16094</t>
+  </si>
+  <si>
+    <t>RMA16093</t>
+  </si>
+  <si>
+    <t>RMA16092</t>
+  </si>
+  <si>
+    <t>RMA16091</t>
+  </si>
+  <si>
+    <t>B4RDF-12G1-35KS-90-NCIC-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 BASIC RD DL TRMD 12W CLASSIC 35K 80CRI 90° BEAM NCIC HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>B4RDF-S-AC-AC-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED ROUND TRMD DL/ADJ SOLITE LENS CLEAR MATTE ANOD</t>
+  </si>
+  <si>
+    <t>RMA16090</t>
+  </si>
+  <si>
+    <t>RMA16089</t>
+  </si>
+  <si>
+    <t>LEM-275-32-3022KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 WG2 32W 90CRI 3000-2200K</t>
+  </si>
+  <si>
+    <t>RMA16088</t>
+  </si>
+  <si>
+    <t>RMA16087</t>
+  </si>
+  <si>
+    <t>B4SDF-16G1-30KS-50-NCSM-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 BASIC SQ DL TRMD 16W CLASSIC 30K 80CRI 50° BEAM NCSM HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA16086</t>
+  </si>
+  <si>
+    <t>RMA16085</t>
+  </si>
+  <si>
+    <t>RMA16084</t>
+  </si>
+  <si>
+    <t>RMA16083</t>
+  </si>
+  <si>
+    <t>RMA16081</t>
+  </si>
+  <si>
+    <t>MDM04-13H1-30KH-50-BL-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DOWNLIGHT TRIMLESS/MILLWORK 4 CELL 13W 3000KH 50° BLACK TRIM</t>
+  </si>
+  <si>
+    <t>RMA16080</t>
+  </si>
+  <si>
+    <t>RMA16079</t>
+  </si>
+  <si>
+    <t>RMA16078</t>
+  </si>
+  <si>
+    <t>RMA16077</t>
+  </si>
+  <si>
+    <t>RMA16076</t>
+  </si>
+  <si>
+    <t>MDG06-21H1-35KH-50-BL-BL-GL95-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DL FOR WOODWORKS 6 CELL 21W 3500K 90 CRI 50° BLACK-BLACK GL95 TRIM</t>
+  </si>
+  <si>
+    <t>RMA16075</t>
+  </si>
+  <si>
+    <t>MDG08-27H1-30KH-35-BL-BL-GT31-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DL FOR WOODWORKS 8 CELL 27W 3000K 90 CRI 35° BLACK-BLACK GT31 TRIM</t>
+  </si>
+  <si>
+    <t>RMA16074</t>
+  </si>
+  <si>
+    <t>RMA16073</t>
+  </si>
+  <si>
+    <t>RMA16072</t>
+  </si>
+  <si>
+    <t>LEM-198-32-3022KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BEVELED 2.0 WGD/CCD 32W STD CRI 3000-2200KS</t>
+  </si>
+  <si>
+    <t>RMA16070</t>
+  </si>
+  <si>
+    <t>SP-263-0700-4H</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-MICRO TRMD NC 21-41W 700mA DIML4H-LT</t>
+  </si>
+  <si>
+    <t>RMA16069</t>
+  </si>
+  <si>
+    <t>RMA16068</t>
+  </si>
+  <si>
+    <t>SP-140-1000-6B</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT - BEVELED 2.1 NC/IC/CP 24 WATT 1000mA 120V-277V-DIML6B EL</t>
+  </si>
+  <si>
+    <t>RMA16066</t>
+  </si>
+  <si>
+    <t>1020-B1-F-10</t>
+  </si>
+  <si>
+    <t>BEVELED BASIC ROUND TRIMMED DOWNLIGHT-DIE CAST BEVEL-WHITE-FROSTED LENS</t>
+  </si>
+  <si>
+    <t>1251-B1-10</t>
+  </si>
+  <si>
+    <t>BEVELED BASIC TRIMMED ROUND WALLWASH-DIE CAST BEVEL WHITE</t>
+  </si>
+  <si>
+    <t>RMA16065</t>
+  </si>
+  <si>
+    <t>RMA16064</t>
+  </si>
+  <si>
+    <t>B4RGM-45-SF-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED RD DL MWRK 45° SLOPED SOLITE FROSTED LENS WHITE BEVEL</t>
+  </si>
+  <si>
+    <t>RMA16063</t>
+  </si>
+  <si>
+    <t>RMA16062</t>
+  </si>
+  <si>
+    <t>7875-10</t>
+  </si>
+  <si>
+    <t>SLIVER ROUND ADJ-VERTICAL GROOVE BLACK BAFFLE-WHITE</t>
+  </si>
+  <si>
+    <t>325CCR</t>
+  </si>
+  <si>
+    <t>325 CONV COLLAR RND WHT</t>
+  </si>
+  <si>
+    <t>325NC-120</t>
+  </si>
+  <si>
+    <t>RECESSED SLIDER HOUSING 50W</t>
+  </si>
+  <si>
+    <t>8177-A</t>
+  </si>
+  <si>
+    <t>LOUVER HEX CELL SIZE A</t>
+  </si>
+  <si>
+    <t>RMA16061</t>
+  </si>
+  <si>
+    <t>RMA16060</t>
+  </si>
+  <si>
+    <t>RMA16059</t>
+  </si>
+  <si>
+    <t>LEM-319-00-40KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT MINI X 80 CRI 4000K</t>
+  </si>
+  <si>
+    <t>RMA16058</t>
+  </si>
+  <si>
+    <t>RMA16057</t>
+  </si>
+  <si>
+    <t>RMA16056</t>
+  </si>
+  <si>
+    <t>RMA16055</t>
+  </si>
+  <si>
+    <t>RPA-02-41H1-UNV-D8E</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MICRO-2 FIXTURES MAX-41W H1 700mA 120-277V D8E</t>
+  </si>
+  <si>
+    <t>RMA16054</t>
+  </si>
+  <si>
+    <t>RMA16052</t>
+  </si>
+  <si>
+    <t>RMA16050</t>
+  </si>
+  <si>
+    <t>RMA16049</t>
+  </si>
+  <si>
+    <t>RMA16048</t>
+  </si>
+  <si>
+    <t>RMA16047</t>
+  </si>
+  <si>
+    <t>B3RGM-45-S-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL MWRK 45° SLOPED SOLITE CLEAR LENS WHITE BEVEL</t>
+  </si>
+  <si>
+    <t>RMA16046</t>
+  </si>
+  <si>
+    <t>RMA16045</t>
+  </si>
+  <si>
+    <t>RMA16044</t>
+  </si>
+  <si>
+    <t>RMA16043</t>
+  </si>
+  <si>
+    <t>LEM-230-16-30KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BEVELED 2.0 DL/WW 16W HI CRI 3000K</t>
+  </si>
+  <si>
+    <t>SP-141-0700-4</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.1 NCSM HSG 16 WATT 700mA-120V-277V-DIML4-LU</t>
+  </si>
+  <si>
+    <t>RMA16042</t>
+  </si>
+  <si>
+    <t>RMA16041</t>
+  </si>
+  <si>
+    <t>RMA16040</t>
+  </si>
+  <si>
+    <t>SP-335-03-RD-F-L</t>
+  </si>
+  <si>
+    <t>BVLED 4”FTA UNV ADPT CONVERSION KIT- RND FLANGED TO TRIMLESS</t>
+  </si>
+  <si>
+    <t>RMA16039</t>
+  </si>
+  <si>
+    <t>RMA16038</t>
+  </si>
+  <si>
+    <t>SP-238-1050</t>
+  </si>
+  <si>
+    <t>REMOTE ELDOLED 600W 0-10V POWER SUPPLY 1050mA</t>
+  </si>
+  <si>
+    <t>RMA16037</t>
+  </si>
+  <si>
+    <t>RMA16036</t>
+  </si>
+  <si>
+    <t>RMA16035</t>
+  </si>
+  <si>
+    <t>B4SDF-32FC1-70-NCSM-UNV-D23X1-WR-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 SQ DL TRMD 32W INFINITE COLOR+ 70°BEAM NCSM HSG 120-277V ELDO DMX 0.1% 8 BIT WIRE SPLICE</t>
+  </si>
+  <si>
+    <t>RMA16034</t>
+  </si>
+  <si>
+    <t>RMA16033</t>
+  </si>
+  <si>
+    <t>P2-110C</t>
+  </si>
+  <si>
+    <t>BEVELED 3" DL CONCENTRIC RING</t>
+  </si>
+  <si>
+    <t>RMA16032</t>
+  </si>
+  <si>
+    <t>LEM-204-00-3022KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BEVELED WGD ADJ 30DEG 18W STD CRI 3000-2200K</t>
+  </si>
+  <si>
+    <t>RMA16031</t>
+  </si>
+  <si>
+    <t>Z3RDL-C-S-WH-TRM</t>
+  </si>
+  <si>
+    <t>TRUE ZERO MINI ROUND DL/ADJ TRMLESS CONCEAL SOLITE LENS WHITE</t>
+  </si>
+  <si>
+    <t>RMA16030</t>
+  </si>
+  <si>
+    <t>RMA16029</t>
+  </si>
+  <si>
+    <t>RMA16028</t>
+  </si>
+  <si>
+    <t>RMA16027</t>
+  </si>
+  <si>
+    <t>RMA16026</t>
+  </si>
+  <si>
+    <t>RMA16025</t>
+  </si>
+  <si>
+    <t>MWF04-13H1-27KH-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>MICRO WALL WASH FLANGE 4 CELL 13W 2700KH WHITE-WHITE-TRIM</t>
+  </si>
+  <si>
+    <t>RMA16024</t>
+  </si>
+  <si>
+    <t>RMA16023</t>
+  </si>
+  <si>
+    <t>USAI-2DLA1-WD1-RESWH-00</t>
+  </si>
+  <si>
+    <t>PINHOLE RD ADJ  BLACK BFFL 16W 3022KH 25° S WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16022</t>
+  </si>
+  <si>
+    <t>RMA16021</t>
+  </si>
+  <si>
+    <t>RMA16020</t>
+  </si>
+  <si>
+    <t>RMA16019</t>
+  </si>
+  <si>
+    <t>B4RAF-16C3-30KH-T25-FTA-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 RD ADJ TRMD 16W CLASSIC 30K 90CRI 25° BEAM FTA HSG 120-277V ELDO 1% LIN DM</t>
+  </si>
+  <si>
+    <t>RMA16018</t>
+  </si>
+  <si>
+    <t>RMA16016</t>
+  </si>
+  <si>
+    <t>RMA16015</t>
+  </si>
+  <si>
+    <t>RMA16014</t>
+  </si>
+  <si>
+    <t>SP-030-50</t>
+  </si>
+  <si>
+    <t>BEVELED 2.0/2.1 RND 50DEG DL OPTIC REPLACEMENT KIT</t>
+  </si>
+  <si>
+    <t>RMA16013</t>
+  </si>
+  <si>
+    <t>RMA16012</t>
+  </si>
+  <si>
+    <t>RMA16011</t>
+  </si>
+  <si>
+    <t>SP-241-0700-19</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-BEVELED BLOCK 16W 700mA 120V-DIML19</t>
+  </si>
+  <si>
+    <t>RMA16010</t>
+  </si>
+  <si>
+    <t>RMA16009</t>
+  </si>
+  <si>
+    <t>SP-257-0350-2</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-MINI BASIC-15W 350mA DIML2 HT</t>
+  </si>
+  <si>
+    <t>RMA16008</t>
+  </si>
+  <si>
+    <t>RMA16007</t>
+  </si>
+  <si>
+    <t>RMA16006</t>
+  </si>
+  <si>
+    <t>RMA16005</t>
+  </si>
+  <si>
+    <t>RMA16004</t>
+  </si>
+  <si>
+    <t>LEM-232-00-6022KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT 6" BEVELED CSD CRI 6022KS</t>
+  </si>
+  <si>
+    <t>RMA16002</t>
+  </si>
+  <si>
+    <t>RMA16001</t>
+  </si>
+  <si>
+    <t>RMA16000</t>
+  </si>
+  <si>
+    <t>RMA15999</t>
+  </si>
+  <si>
+    <t>SP-143-1000-19</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-BEVELED 2.1 RT 24W-1000ma-120V-DIML19-HT</t>
+  </si>
+  <si>
+    <t>RMA15998</t>
+  </si>
+  <si>
+    <t>RMA15997</t>
+  </si>
+  <si>
+    <t>RMA15996</t>
+  </si>
+  <si>
+    <t>SP-175-0700-1M</t>
+  </si>
+  <si>
+    <t>DRIVER ASM BEVELED WRGB- 32W 350/350/350/700mA 120V-277V NC/IC/CP 8 BIT MANUAL ADDRESSING DMX DIM-EL</t>
+  </si>
+  <si>
+    <t>SP-192-RJ</t>
+  </si>
+  <si>
+    <t>INTERFACE- DMX SIGNAL WRGB- RJ45</t>
+  </si>
+  <si>
+    <t>RMA15995</t>
+  </si>
+  <si>
+    <t>RMA15994</t>
+  </si>
+  <si>
+    <t>USAI-3DL-SPACK-S-FT-00</t>
+  </si>
+  <si>
+    <t>RECESS 3 SQUARE FT SPACKLE FRAME KIT</t>
+  </si>
+  <si>
+    <t>RMA15993</t>
+  </si>
+  <si>
+    <t>RMA15992</t>
+  </si>
+  <si>
+    <t>USAI-3DLD1-SPSWH-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAVANT/USAI RECESS 3 DL SQR TRML SOLITE LENS WHITE TRM_x000D_
+</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>RMA15990</t>
+  </si>
+  <si>
+    <t>USAI-3DLD1-SMSBZ-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAVANT/USAI RECESS 3 DNL SQR MILL SOLITE LENS STATUARY BRONZE TRM 00
+</t>
   </si>
 </sst>
 </file>
@@ -7183,10 +7761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1362"/>
+  <dimension ref="A1:F1497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1205" workbookViewId="0">
-      <selection activeCell="L1214" sqref="L1214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1363" sqref="A1363:F1497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34434,6 +35013,2706 @@
         <v>2041</v>
       </c>
     </row>
+    <row r="1363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1363" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B1363" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1363" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1363" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E1363" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1363" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1364" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B1364" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1364" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1364" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E1364" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1364" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1365" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B1365" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1365" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1365" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1365" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1365" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1366" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B1366" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1366" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1366" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1366" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1366" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1367" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B1367" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1367" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1367" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E1367" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1367" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1368" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B1368" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1368" s="1">
+        <v>19</v>
+      </c>
+      <c r="D1368" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E1368" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1368" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1369" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B1369" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1369" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1369" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E1369" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1369" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1370" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B1370" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C1370" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1370" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E1370" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1370" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1371" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B1371" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1371" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1371" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1371" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1371" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1372" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B1372" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1372" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1372" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1372" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1372" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1373" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1373" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1373" s="1">
+        <v>36</v>
+      </c>
+      <c r="D1373" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E1373" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1373" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1374" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1374" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C1374" s="1">
+        <v>36</v>
+      </c>
+      <c r="D1374" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E1374" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1374" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1375" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B1375" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C1375" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1375" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E1375" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1375" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1376" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B1376" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1376" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1376" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1376" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1376" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1377" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B1377" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C1377" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1377" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E1377" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1377" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1378" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1378" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1378" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1378" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1378" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1378" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1379" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1379" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1379" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1379" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1379" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1379" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1380" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B1380" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C1380" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1380" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E1380" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1380" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1381" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B1381" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C1381" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1381" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1381" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1381" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1382" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B1382" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1382" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1382" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1382" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1382" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1383" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B1383" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1383" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1383" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1383" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1383" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1384" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B1384" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1384" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1384" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1384" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1384" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1385" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B1385" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C1385" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1385" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E1385" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1385" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1386" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B1386" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1386" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1386" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E1386" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1386" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1387" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1387" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1387" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1387" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E1387" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1387" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1388" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1388" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C1388" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1388" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E1388" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1388" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1389" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1389" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1389" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1389" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1389" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1389" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1390" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B1390" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1390" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1390" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1390" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1390" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1391" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B1391" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1391" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1391" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1391" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1391" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1392" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B1392" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1392" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1392" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="E1392" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1392" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1393" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B1393" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1393" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1393" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="E1393" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1393" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1394" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B1394" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C1394" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1394" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E1394" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1394" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1395" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B1395" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C1395" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1395" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E1395" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1395" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1396" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B1396" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1396" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1396" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1396" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1396" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1397" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B1397" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1397" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1397" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1397" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1397" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1398" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B1398" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C1398" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1398" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E1398" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1398" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1399" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B1399" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1399" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1399" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="E1399" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1399" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1400" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B1400" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1400" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1400" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E1400" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1400" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1401" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B1401" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1401" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1401" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="E1401" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1401" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1402" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B1402" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1402" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1402" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="E1402" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1402" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1403" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B1403" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C1403" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1403" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="E1403" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1403" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1404" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1404" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1404" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1404" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1404" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1404" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1405" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1405" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C1405" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1405" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="E1405" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1405" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1406" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1406" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C1406" s="1">
+        <v>12</v>
+      </c>
+      <c r="D1406" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E1406" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1406" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1407" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1407" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C1407" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1407" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="E1407" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1407" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1408" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1408" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C1408" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1408" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="E1408" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1408" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1409" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1409" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1409" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1409" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="E1409" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1409" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1410" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1410" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1410" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1410" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1410" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1410" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1411" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1411" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C1411" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1411" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="E1411" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1411" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1412" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1412" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C1412" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1412" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E1412" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1412" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1413" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B1413" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1413" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1413" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E1413" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1413" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1414" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1414" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C1414" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1414" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E1414" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1414" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1415" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1415" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1415" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1415" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E1415" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1415" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1416" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1416" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C1416" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1416" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E1416" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1416" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1417" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1417" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1417" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1417" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1417" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1417" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1418" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1418" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C1418" s="1">
+        <v>17</v>
+      </c>
+      <c r="D1418" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E1418" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1418" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1419" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1419" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1419" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1419" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E1419" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1419" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1420" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1420" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1420" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1420" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1420" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1420" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1421" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1421" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1421" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1421" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E1421" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1421" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1422" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B1422" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1422" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1422" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1422" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1422" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1423" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B1423" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1423" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1423" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1423" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1423" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1424" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B1424" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1424" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1424" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1424" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1424" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1425" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B1425" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1425" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1425" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1425" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1425" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1426" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1426" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1426" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1426" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E1426" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1426" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1427" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1427" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C1427" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1427" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E1427" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1427" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1428" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1428" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1428" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1428" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1428" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1428" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1429" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B1429" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1429" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1429" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1429" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1429" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1430" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B1430" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C1430" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1430" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E1430" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1430" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1431" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1431" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C1431" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1431" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="E1431" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1431" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1432" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1432" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C1432" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1432" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E1432" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1432" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1433" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B1433" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1433" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1433" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1433" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1433" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1434" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B1434" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1434" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1434" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1434" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1434" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1435" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B1435" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1435" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1435" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1435" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1435" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1436" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B1436" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1436" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1436" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E1436" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1436" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1437" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B1437" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C1437" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1437" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E1437" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1437" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1438" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B1438" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1438" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1438" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E1438" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1438" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1439" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B1439" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C1439" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1439" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1439" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1439" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1440" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B1440" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C1440" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1440" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="E1440" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1440" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1441" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1441" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C1441" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1441" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E1441" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1441" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1442" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B1442" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1442" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1442" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E1442" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1442" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1443" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B1443" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1443" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1443" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E1443" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1443" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1444" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B1444" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1444" s="1">
+        <v>65</v>
+      </c>
+      <c r="D1444" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1444" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1444" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1445" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B1445" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C1445" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1445" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E1445" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1445" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1446" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B1446" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1446" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1446" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1446" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1446" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1447" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B1447" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C1447" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1447" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E1447" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F1447" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1448" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B1448" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1448" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1448" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1448" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F1448" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1449" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B1449" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C1449" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1449" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E1449" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1449" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1450" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B1450" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C1450" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1450" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E1450" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F1450" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1451" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B1451" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C1451" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1451" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E1451" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1451" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1452" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B1452" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1452" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1452" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1452" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1452" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1453" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B1453" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1453" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1453" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E1453" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1453" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1454" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B1454" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1454" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1454" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1454" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1454" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1455" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B1455" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1455" s="1">
+        <v>17</v>
+      </c>
+      <c r="D1455" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E1455" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1455" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1456" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B1456" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1456" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1456" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E1456" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1456" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1457" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B1457" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1457" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1457" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1457" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1457" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1458" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B1458" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C1458" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1458" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E1458" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1458" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1459" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B1459" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1459" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1459" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1459" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1459" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1460" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1460" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1460" s="1">
+        <v>32</v>
+      </c>
+      <c r="D1460" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1460" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1460" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1461" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B1461" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C1461" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1461" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E1461" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1461" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1462" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B1462" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1462" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1462" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1462" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1462" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1463" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B1463" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C1463" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1463" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="E1463" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F1463" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1464" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B1464" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1464" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1464" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1464" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1464" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1465" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1465" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C1465" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1465" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E1465" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1465" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1466" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1466" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1466" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1466" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1466" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1466" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1467" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B1467" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1467" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1467" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1467" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1467" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1468" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B1468" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1468" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1468" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1468" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1468" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1469" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1469" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C1469" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1469" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="E1469" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1469" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1470" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B1470" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1470" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1470" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E1470" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1470" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1471" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1471" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1471" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1471" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E1471" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1471" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1472" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B1472" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C1472" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1472" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E1472" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1472" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1473" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B1473" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1473" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1473" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1473" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1473" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1474" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B1474" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1474" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1474" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1474" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1474" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1475" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B1475" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C1475" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1475" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E1475" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1475" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1476" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1476" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1476" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1476" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1476" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1476" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1477" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B1477" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1477" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1477" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1477" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1477" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1478" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B1478" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1478" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1478" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1478" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1478" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1479" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B1479" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C1479" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1479" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E1479" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1479" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1480" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1480" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C1480" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1480" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E1480" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1480" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1481" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B1481" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1481" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1481" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1481" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1481" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1482" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B1482" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1482" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1482" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E1482" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1482" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1483" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B1483" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1483" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1483" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1483" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1483" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1484" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1484" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1484" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1484" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1484" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1484" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1485" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1485" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C1485" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1485" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E1485" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1485" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1486" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1486" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C1486" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1486" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E1486" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1486" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1487" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B1487" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1487" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1487" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1487" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1487" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1488" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B1488" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1488" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1488" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E1488" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1488" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1489" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1489" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C1489" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1489" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E1489" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1489" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1490" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1490" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C1490" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1490" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E1490" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1490" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1491" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B1491" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1491" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1491" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1491" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1491" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1492" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B1492" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1492" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1492" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E1492" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1492" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1493" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1493" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C1493" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1493" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E1493" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1493" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1494" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B1494" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C1494" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1494" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E1494" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="F1494" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1495" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B1495" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C1495" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1495" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E1495" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1495" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1496" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B1496" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C1496" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1496" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E1496" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1496" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1497" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B1497" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C1497" s="1">
+        <v>70</v>
+      </c>
+      <c r="D1497" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E1497" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="F1497" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Code/Failure_rate/2021/YTD/2021_YTD.xlsx
+++ b/Code/Failure_rate/2021/YTD/2021_YTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\project_files\USAI\Code\Failure_rate\2021\YTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC4F773-A0B5-4EA2-9200-0C69113CD0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F7785A-2B75-4C40-BDEF-91AC0F418FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20550" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="20550" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8300" uniqueCount="2664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9030" uniqueCount="2863">
   <si>
     <t>RMA_ID</t>
   </si>
@@ -8020,6 +8020,603 @@
   </si>
   <si>
     <t>RMA16100</t>
+  </si>
+  <si>
+    <t>RMA16326</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>RMA16325</t>
+  </si>
+  <si>
+    <t>CM 27</t>
+  </si>
+  <si>
+    <t>27 INCH  CHANNEL BARS/2 BEVELED MINI FT</t>
+  </si>
+  <si>
+    <t>RMA16324</t>
+  </si>
+  <si>
+    <t>B4RWL-D2-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED ROUND TRML WW 5555 LENS DIFFUSION WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16323</t>
+  </si>
+  <si>
+    <t>SP-062-0500-3</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED BASIC NCSM  HSG 20WATT 500mA 120V DIML3-LU</t>
+  </si>
+  <si>
+    <t>RMA16322</t>
+  </si>
+  <si>
+    <t>7862-28</t>
+  </si>
+  <si>
+    <t>SLIVER MR16- 5" DL-3/8"-METALIZED GREY</t>
+  </si>
+  <si>
+    <t>RMA16321</t>
+  </si>
+  <si>
+    <t>SP-140-1400-6A</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT - BEVELED 2.1 NC/IC/CP 33WATT 1400mA 120V-277V-DIML6A EL</t>
+  </si>
+  <si>
+    <t>RMA16319</t>
+  </si>
+  <si>
+    <t>RMA16318</t>
+  </si>
+  <si>
+    <t>RMA16317</t>
+  </si>
+  <si>
+    <t>RMA16316</t>
+  </si>
+  <si>
+    <t>RMA16315</t>
+  </si>
+  <si>
+    <t>RMA16314</t>
+  </si>
+  <si>
+    <t>SP-140-1000-4</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT - BEVELED 2.1 NC/IC/CP 24 WATT 1000mA 120V-277V DIML4 LU</t>
+  </si>
+  <si>
+    <t>RMA16313</t>
+  </si>
+  <si>
+    <t>RMA16312</t>
+  </si>
+  <si>
+    <t>RMA16311</t>
+  </si>
+  <si>
+    <t>RMA16310</t>
+  </si>
+  <si>
+    <t>SV-X115-NC-UNV-D6F</t>
+  </si>
+  <si>
+    <t>SLIVERLED SQ/RND TRIMMED 15W NEW CONSTRUCTION HSG 120-277V-DIML6F</t>
+  </si>
+  <si>
+    <t>RMA16309</t>
+  </si>
+  <si>
+    <t>RPB-01-20WG2-UNV-D4P</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MINI/NANO-1 FIXTURE MAX-20W WG2 500mA 120-277V D4P</t>
+  </si>
+  <si>
+    <t>RMA16307</t>
+  </si>
+  <si>
+    <t>CMRW8-20X3-35KS-W2-D1-BL-PJ1-120V-D22</t>
+  </si>
+  <si>
+    <t>BEVELED MINI CYL RD WW 20W BLACK 8" 3500KS W2 D1 PJ1 120V DIML22</t>
+  </si>
+  <si>
+    <t>SK-070-22</t>
+  </si>
+  <si>
+    <t>SAMPLE DIMMER-DIML22</t>
+  </si>
+  <si>
+    <t>PXA-24-BL</t>
+  </si>
+  <si>
+    <t>PENDANT MOUNT P1-24" BLACK FIELD CUTTABLE STEM</t>
+  </si>
+  <si>
+    <t>RMA16306</t>
+  </si>
+  <si>
+    <t>B3SDL-15L2-30KH-30-EC-120V-D21-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRML 15W BASIC 30K 90CRI 30° BEAM EC HSG 120V D21</t>
+  </si>
+  <si>
+    <t>SK-070-21</t>
+  </si>
+  <si>
+    <t>SAMPLE DIMMER-DIML21</t>
+  </si>
+  <si>
+    <t>RMA16305</t>
+  </si>
+  <si>
+    <t>RMA16304</t>
+  </si>
+  <si>
+    <t>USAI-2DL-LED-WD1XX-00</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT PINHOLE WGD HI CRI 3000-2200K</t>
+  </si>
+  <si>
+    <t>RMA16303</t>
+  </si>
+  <si>
+    <t>LEM-239-01-35KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 ADJ 90+CRI 3500K-WIDE ARRAY</t>
+  </si>
+  <si>
+    <t>RMA16302</t>
+  </si>
+  <si>
+    <t>RMA16301</t>
+  </si>
+  <si>
+    <t>M1RDF-09X1M-30KS-35-M0-WH-WH-NC-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD DL TRMD 9W 3000K 80 CRI 35° BEAM MICRO DIF LENS WHITE WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16300</t>
+  </si>
+  <si>
+    <t>B4RWL-D2-BL-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED ROUND TRML WW 50° LENS DIFFUSION BLACK TRIM</t>
+  </si>
+  <si>
+    <t>RMA16299</t>
+  </si>
+  <si>
+    <t>RMA16298</t>
+  </si>
+  <si>
+    <t>RMA16297</t>
+  </si>
+  <si>
+    <t>RMA16296</t>
+  </si>
+  <si>
+    <t>RMA16295</t>
+  </si>
+  <si>
+    <t>B3SAL-15WG2-3022KH-50-NCIC-UNV-D4P-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ ADJ TRML 15W WARM GLOW 30-22K 90CRI 50° BEAM NCIC HSG 120-277V D4P LUTRON ECO 1%</t>
+  </si>
+  <si>
+    <t>RMA16294</t>
+  </si>
+  <si>
+    <t>RMA16293</t>
+  </si>
+  <si>
+    <t>RMA16292</t>
+  </si>
+  <si>
+    <t>E2-221A</t>
+  </si>
+  <si>
+    <t>ADELS 3/FEMALE PLUG WHITE AC 166-1 BU/3 WHITE</t>
+  </si>
+  <si>
+    <t>RMA16291</t>
+  </si>
+  <si>
+    <t>RMA16290</t>
+  </si>
+  <si>
+    <t>E2-752-AA</t>
+  </si>
+  <si>
+    <t>EM BATTERY PACK IOTA 7W 'A' CONFIGURATION</t>
+  </si>
+  <si>
+    <t>RMA16288</t>
+  </si>
+  <si>
+    <t>RMA16287</t>
+  </si>
+  <si>
+    <t>RMA16286</t>
+  </si>
+  <si>
+    <t>AL55N</t>
+  </si>
+  <si>
+    <t>SIZE N-ACCESSORY LENS MICRODIFFUSION 55 X 55° BEAM</t>
+  </si>
+  <si>
+    <t>RMA16285</t>
+  </si>
+  <si>
+    <t>RMA16284</t>
+  </si>
+  <si>
+    <t>RMA16283</t>
+  </si>
+  <si>
+    <t>RMA16282</t>
+  </si>
+  <si>
+    <t>RMA16281</t>
+  </si>
+  <si>
+    <t>B3SDF-15X3-30KH-65-FT-RM-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRMD 15W CLASSIC 30K 90CRI 65° BEAM FT HSG RM</t>
+  </si>
+  <si>
+    <t>RMA16280</t>
+  </si>
+  <si>
+    <t>RMA16279</t>
+  </si>
+  <si>
+    <t>RMA16277</t>
+  </si>
+  <si>
+    <t>RMA16276</t>
+  </si>
+  <si>
+    <t>Z1RWF-15X1M-30KH-W2-NC-RM-HSG</t>
+  </si>
+  <si>
+    <t>ZEPTO RD WW TRMD 15W CLASSIC 30K 90CRI NADIR OPTIC NC HSG REMOTE POWER SUPPLY</t>
+  </si>
+  <si>
+    <t>RMA16275</t>
+  </si>
+  <si>
+    <t>SP-322-0350-3</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT DRIVER-REPLACEMENT MINI X1/X3/WG2/CS1 NC1/NCIC/NCCP-0350mA 120V-277V DIML3-TR</t>
+  </si>
+  <si>
+    <t>RMA16274</t>
+  </si>
+  <si>
+    <t>RMA16273</t>
+  </si>
+  <si>
+    <t>RMA16272</t>
+  </si>
+  <si>
+    <t>RMA16271</t>
+  </si>
+  <si>
+    <t>RMA16270</t>
+  </si>
+  <si>
+    <t>LEM-239-00-40KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 ADJ 80+CRI 4000K-WIDE ARRAY</t>
+  </si>
+  <si>
+    <t>RMA16269</t>
+  </si>
+  <si>
+    <t>RMA16268</t>
+  </si>
+  <si>
+    <t>SP-187-X-15-D4H</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT CONNECT NC HSG 15W 350mA DIML4H-LU</t>
+  </si>
+  <si>
+    <t>RMA16267</t>
+  </si>
+  <si>
+    <t>RMA16266</t>
+  </si>
+  <si>
+    <t>RMA16265</t>
+  </si>
+  <si>
+    <t>M1SDL-09X1M-30KH-50-M0-WH-NC-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO SQ DL TRML 9W 3000K 90 CRI 50° BEAM MICRO DIF LENS WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16264</t>
+  </si>
+  <si>
+    <t>RMA16263</t>
+  </si>
+  <si>
+    <t>RMA16262</t>
+  </si>
+  <si>
+    <t>SK-098-B3SDP-GW-M1-B3SDP-WL-M15</t>
+  </si>
+  <si>
+    <t>USAI ARMSTRONG SAMPLE KIT SQ TRML TILE GUN METAL/SQ TRML TILE WHITE LUME</t>
+  </si>
+  <si>
+    <t>RMA16261</t>
+  </si>
+  <si>
+    <t>RMA16260</t>
+  </si>
+  <si>
+    <t>B4SDF-16C3-30KS-90-FTCP-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 SQ DL TRMD 16W CLASSIC 30K 80CRI 90° BEAM FTCP HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA16259</t>
+  </si>
+  <si>
+    <t>RMA16258</t>
+  </si>
+  <si>
+    <t>RMA16257</t>
+  </si>
+  <si>
+    <t>RMA16255</t>
+  </si>
+  <si>
+    <t>E2-016</t>
+  </si>
+  <si>
+    <t>THERMAL PROTECTOR 277</t>
+  </si>
+  <si>
+    <t>RMA16254</t>
+  </si>
+  <si>
+    <t>RMA16253</t>
+  </si>
+  <si>
+    <t>RMA16252</t>
+  </si>
+  <si>
+    <t>RMA16251</t>
+  </si>
+  <si>
+    <t>SP-033-0500-4</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT NANO MTG-2 20W-500mA 120V-277V DIML4-LU</t>
+  </si>
+  <si>
+    <t>RMA16250</t>
+  </si>
+  <si>
+    <t>RMA16248</t>
+  </si>
+  <si>
+    <t>LEM-275-32-2722KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 WG2 32W 80CRI 2700-2200K</t>
+  </si>
+  <si>
+    <t>RMA16247</t>
+  </si>
+  <si>
+    <t>LEM-274-00-30KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT SLIVERLED HI CRI 3000K</t>
+  </si>
+  <si>
+    <t>SP-234-0700-28</t>
+  </si>
+  <si>
+    <t>DRIVER PLATE SLIVERLED 700mA-D28 WGD</t>
+  </si>
+  <si>
+    <t>RMA16246</t>
+  </si>
+  <si>
+    <t>RMA16245</t>
+  </si>
+  <si>
+    <t>RMA16244</t>
+  </si>
+  <si>
+    <t>LEM-274-00-35KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT SLIVERLED STD CRI 3500K</t>
+  </si>
+  <si>
+    <t>RMA16243</t>
+  </si>
+  <si>
+    <t>RPB-01-20X3-UNV-D6E-EM7</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MINI/NANO-1 FIXTURE MAX-20W X3 500mA 120-277V D6E-EM 7W</t>
+  </si>
+  <si>
+    <t>RMA16242</t>
+  </si>
+  <si>
+    <t>RMA16241</t>
+  </si>
+  <si>
+    <t>SP-155-0350-2</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT- MINI NC1 14W 350mA 120V-277V-DIML2</t>
+  </si>
+  <si>
+    <t>RMA16240</t>
+  </si>
+  <si>
+    <t>RMA16239</t>
+  </si>
+  <si>
+    <t>RMA16238</t>
+  </si>
+  <si>
+    <t>RMA16237</t>
+  </si>
+  <si>
+    <t>SP-338-01-SQ-F-L</t>
+  </si>
+  <si>
+    <t>3" MINI COMPLETE NC1/NCIC/NC CCP SQUARE FLANGED TO FLANGELESS</t>
+  </si>
+  <si>
+    <t>B3SDL-S-AC-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL/ADJ TRML SOLITE LENS -ANOD CLEAR MATTE BEVEL</t>
+  </si>
+  <si>
+    <t>B4RAL-25-S-AC-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED ROUND TRML 0-25° ADJ SOLITE LENS CLEAR MATTE ANOD TRIM</t>
+  </si>
+  <si>
+    <t>RMA16236</t>
+  </si>
+  <si>
+    <t>M1RDL-09X1M-30KH-50-M0-WH-NC-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD DL TRML 9W 3000K 90 CRI 50° BEAM MICRO DIF LENS WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16235</t>
+  </si>
+  <si>
+    <t>RMA16233</t>
+  </si>
+  <si>
+    <t>RMA16232</t>
+  </si>
+  <si>
+    <t>RMA16231</t>
+  </si>
+  <si>
+    <t>RMA16230</t>
+  </si>
+  <si>
+    <t>RMA16229</t>
+  </si>
+  <si>
+    <t>RMA16228</t>
+  </si>
+  <si>
+    <t>B4SCL-S-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED SQUARE TRML COMFORT SOLITE LENS WHITE</t>
+  </si>
+  <si>
+    <t>RMA16227</t>
+  </si>
+  <si>
+    <t>RMA16226</t>
+  </si>
+  <si>
+    <t>SP-140-0900-2</t>
+  </si>
+  <si>
+    <t>RMA16225</t>
+  </si>
+  <si>
+    <t>RMA16224</t>
+  </si>
+  <si>
+    <t>RMA16223</t>
+  </si>
+  <si>
+    <t>RMA16222</t>
+  </si>
+  <si>
+    <t>SP-189-0350-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT SLIVERLED 350mA-DIML6E-EL</t>
+  </si>
+  <si>
+    <t>RMA16221</t>
+  </si>
+  <si>
+    <t>RMA16220</t>
+  </si>
+  <si>
+    <t>RMA16219</t>
+  </si>
+  <si>
+    <t>MDL08-27H1-40KH-50-SM-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DOWNLIGHT TRIMLESS 8 CELL 27W 4000K 90 CRI 50° SILVER MATTE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16218</t>
+  </si>
+  <si>
+    <t>RMA16217</t>
+  </si>
+  <si>
+    <t>RMA16216</t>
+  </si>
+  <si>
+    <t>RMA16215</t>
+  </si>
+  <si>
+    <t>RMA16214</t>
+  </si>
+  <si>
+    <t>CBRD10-33C3-35KH-25-SF-WH-AR3-UNV-D6E</t>
+  </si>
+  <si>
+    <t>2.2 CYLINDER RD DL 33W CW 3500KH 25° BEAM-SOLITE FROSTED-WHITE-AR MOUNT 96" 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA16213</t>
   </si>
 </sst>
 </file>
@@ -8372,11 +8969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1660"/>
+  <dimension ref="A1:F1806"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1497" sqref="E1497"/>
+      <pane ySplit="1" topLeftCell="A1667" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1661" sqref="A1661:F1806"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41584,6 +42181,2926 @@
         <v>2457</v>
       </c>
     </row>
+    <row r="1661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1661">
+        <v>1</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>814</v>
+      </c>
+      <c r="E1661" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1661" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1662" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1662">
+        <v>24</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>2668</v>
+      </c>
+      <c r="E1662" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1662" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1663" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C1663">
+        <v>2</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E1663" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1663" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1664" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C1664">
+        <v>2</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E1664" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1664" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1665" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1665">
+        <v>2</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1665" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1665" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1666" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1666">
+        <v>1</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1666" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1666" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1667" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C1667">
+        <v>1</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E1667" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1667" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1668" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C1668">
+        <v>1</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>2677</v>
+      </c>
+      <c r="E1668" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1668" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1669" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C1669">
+        <v>6</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E1669" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1669" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1670" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1670">
+        <v>6</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>837</v>
+      </c>
+      <c r="E1670" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1670" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1671" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1671">
+        <v>1</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1671" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1671" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1672" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C1672">
+        <v>1</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E1672" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1672" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1673" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1673">
+        <v>1</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1673" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1673" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1674" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C1674">
+        <v>5</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E1674" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1674" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1675" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C1675">
+        <v>15</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E1675" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1675" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1676" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1676">
+        <v>1</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1676" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1676" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1677" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1677">
+        <v>1</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1677" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1677" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1678" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C1678">
+        <v>1</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E1678" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1678" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1679" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1679">
+        <v>2</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1679" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1679" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1680" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1680">
+        <v>2</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E1680" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1680" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1681" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1681">
+        <v>1</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1681" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1681" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1682" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1682">
+        <v>1</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1682" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1682" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1683" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C1683">
+        <v>78</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E1683" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1683" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1684" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C1684">
+        <v>1</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>2697</v>
+      </c>
+      <c r="E1684" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1684" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1685" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C1685">
+        <v>2</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E1685" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1685" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1686" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C1686">
+        <v>2</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E1686" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1686" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1687" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C1687">
+        <v>2</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>2704</v>
+      </c>
+      <c r="E1687" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1687" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1688" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1688">
+        <v>1</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>2707</v>
+      </c>
+      <c r="E1688" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1688" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1689" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1689">
+        <v>1</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E1689" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1689" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1690" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1690">
+        <v>2</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E1690" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1690" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1691" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1691">
+        <v>2</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E1691" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1691" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1692" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1692">
+        <v>1</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>2716</v>
+      </c>
+      <c r="E1692" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1692" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1693" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C1693">
+        <v>1</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E1693" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1693" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1694" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1694">
+        <v>1</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1694" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1694" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1695" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C1695">
+        <v>2</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E1695" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1695" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1696" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C1696">
+        <v>3</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E1696" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1696" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1697" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>816</v>
+      </c>
+      <c r="C1697">
+        <v>7</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>817</v>
+      </c>
+      <c r="E1697" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1697" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1698" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C1698">
+        <v>2</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E1698" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1698" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1699" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1699">
+        <v>7</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1699" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1699" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1700" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>774</v>
+      </c>
+      <c r="C1700">
+        <v>7</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>775</v>
+      </c>
+      <c r="E1700" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1700" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1701" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1701">
+        <v>1</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E1701" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1701" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1702" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C1702">
+        <v>1</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E1702" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1702" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1703" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1703">
+        <v>95</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E1703" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1703" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1704" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C1704">
+        <v>19</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E1704" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1704" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1705" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>861</v>
+      </c>
+      <c r="C1705">
+        <v>1</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>862</v>
+      </c>
+      <c r="E1705" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1705" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1706" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1706">
+        <v>3</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1706" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1706" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1707" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C1707">
+        <v>4</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E1707" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1707" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1708" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C1708">
+        <v>1</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E1708" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1708" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1709" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C1709">
+        <v>2</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E1709" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1709" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1710" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1710">
+        <v>6</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1710" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1710" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1711" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1711">
+        <v>1</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1711" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1711" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1712" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C1712">
+        <v>23</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E1712" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1712" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1713" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1713">
+        <v>3</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1713" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1713" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1714" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>906</v>
+      </c>
+      <c r="C1714">
+        <v>1</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1714" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1714" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1715" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1715">
+        <v>1</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1715" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1715" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1716" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1716">
+        <v>1</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1716" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1717" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>943</v>
+      </c>
+      <c r="C1717">
+        <v>18</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>944</v>
+      </c>
+      <c r="E1717" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1717" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1718" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C1718">
+        <v>11</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>2751</v>
+      </c>
+      <c r="E1718" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1718" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1719" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C1719">
+        <v>30</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>2751</v>
+      </c>
+      <c r="E1719" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1719" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1720" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>623</v>
+      </c>
+      <c r="C1720">
+        <v>1</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>624</v>
+      </c>
+      <c r="E1720" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1720" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1721" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>816</v>
+      </c>
+      <c r="C1721">
+        <v>3</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>817</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1721" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1722" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1722">
+        <v>14</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1722" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1722" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1723" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1723">
+        <v>1</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1723" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1724" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C1724">
+        <v>1</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>2757</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1724" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1725" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C1725">
+        <v>1</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1725" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1726" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1726">
+        <v>10</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1726" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1727" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1727">
+        <v>4</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1727" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1728" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1728">
+        <v>1</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1728" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1729" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1729">
+        <v>1</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1729" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1730" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C1730">
+        <v>2</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1730" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1731" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C1731">
+        <v>1</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1731" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1732" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C1732">
+        <v>1</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>2767</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1732" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1733" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1733">
+        <v>8</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1733" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1734" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C1734">
+        <v>2</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>2771</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1734" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1735" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1735">
+        <v>4</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1736" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1736">
+        <v>20</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1736" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1737" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C1737">
+        <v>12</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1737" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1738" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1738">
+        <v>5</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1739" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>760</v>
+      </c>
+      <c r="C1739">
+        <v>3</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>761</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1739" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1740" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C1740">
+        <v>1</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1740" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1741" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1741">
+        <v>10</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1741" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1742" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1742">
+        <v>5</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>837</v>
+      </c>
+      <c r="E1742" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1742" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1743" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C1743">
+        <v>2</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>2785</v>
+      </c>
+      <c r="E1743" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1743" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1744" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C1744">
+        <v>1</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1744" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1745" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C1745">
+        <v>12</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1745" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1746" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C1746">
+        <v>1</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1746" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1747" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C1747">
+        <v>1</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1747" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1748" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C1748">
+        <v>6</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>2791</v>
+      </c>
+      <c r="E1748" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1748" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1749" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1749">
+        <v>2</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1749" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1749" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1750" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1750">
+        <v>11</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1750" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1750" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1751" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1751">
+        <v>11</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1751" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1751" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1752" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1752">
+        <v>2</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1752" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1752" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1753" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C1753">
+        <v>2</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E1753" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1753" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1754" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1754">
+        <v>4</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1754" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1754" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1755" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1755">
+        <v>6</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>627</v>
+      </c>
+      <c r="E1755" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F1755" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1756" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1756">
+        <v>3</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1756" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F1756" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1757" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C1757">
+        <v>1</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E1757" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1757" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1758" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C1758">
+        <v>2</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>2804</v>
+      </c>
+      <c r="E1758" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1758" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1759" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C1759">
+        <v>5</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E1759" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1759" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1760" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C1760">
+        <v>35</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E1760" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1760" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1761" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C1761">
+        <v>1</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E1761" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1761" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1762" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C1762">
+        <v>1</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1762" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1763" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C1763">
+        <v>2</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1763" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1764" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C1764">
+        <v>10</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1764" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1765" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1765">
+        <v>2</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1765" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1766" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>623</v>
+      </c>
+      <c r="C1766">
+        <v>2</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>624</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1766" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1767" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C1767">
+        <v>2</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1767" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1768" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>940</v>
+      </c>
+      <c r="C1768">
+        <v>1</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>941</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1768" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1769" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1769">
+        <v>1</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1769" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1770" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1770">
+        <v>4</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1770" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1771" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1771">
+        <v>1</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1771" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1772" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1772">
+        <v>1</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1772" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1773" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C1773">
+        <v>30</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1773" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1774" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C1774">
+        <v>30</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1774" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1775" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C1775">
+        <v>12</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1775" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1776" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C1776">
+        <v>12</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1776" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1777" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C1777">
+        <v>1</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>2831</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1777" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1778" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C1778">
+        <v>1</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1778" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1779" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>940</v>
+      </c>
+      <c r="C1779">
+        <v>5</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>941</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1779" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1780" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>940</v>
+      </c>
+      <c r="C1780">
+        <v>58</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>941</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1780" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1781" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1781">
+        <v>30</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>814</v>
+      </c>
+      <c r="E1781" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1781" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1782" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C1782">
+        <v>1</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1782" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1783" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1783">
+        <v>1</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>814</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1783" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1784" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1784">
+        <v>2</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1784" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1785" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C1785">
+        <v>2</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1785" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1786" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1786">
+        <v>8</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1786" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1787" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C1787">
+        <v>2</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1787" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1788" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C1788">
+        <v>2</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1788" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1789" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1789">
+        <v>10</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1789" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1790" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C1790">
+        <v>78</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1790" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1791" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1791">
+        <v>2</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1791" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1792" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C1792">
+        <v>2</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1792" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1793" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C1793">
+        <v>1</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1793" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1794" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C1794">
+        <v>1</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>2535</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1794" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1795" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C1795">
+        <v>3</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1795" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1796" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C1796">
+        <v>102</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1796" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1797" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1797">
+        <v>9</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1797" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1798" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1798">
+        <v>1</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1798" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1799" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1799">
+        <v>10</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1799" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1800" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1800">
+        <v>8</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1800" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1801" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>906</v>
+      </c>
+      <c r="C1801">
+        <v>8</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1801" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1802" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C1802">
+        <v>2</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1802" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1803" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>772</v>
+      </c>
+      <c r="C1803">
+        <v>3</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>773</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1803" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1804" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1804">
+        <v>5</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1804" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1805" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C1805">
+        <v>2</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1805" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1806" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1806">
+        <v>1</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1806" t="s">
+        <v>2665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Code/Failure_rate/2021/YTD/2021_YTD.xlsx
+++ b/Code/Failure_rate/2021/YTD/2021_YTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\project_files\USAI\Code\Failure_rate\2021\YTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F7785A-2B75-4C40-BDEF-91AC0F418FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E4FED6-2D9D-46F9-BFEB-D8D6F472A999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="20550" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20550" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9030" uniqueCount="2863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9882" uniqueCount="3090">
   <si>
     <t>RMA_ID</t>
   </si>
@@ -8617,6 +8617,687 @@
   </si>
   <si>
     <t>RMA16213</t>
+  </si>
+  <si>
+    <t>RMA16444</t>
+  </si>
+  <si>
+    <t>SP-337-01-RD-L-M-F021</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>RMA16443</t>
+  </si>
+  <si>
+    <t>RMA16442</t>
+  </si>
+  <si>
+    <t>2411-B1-F-10</t>
+  </si>
+  <si>
+    <t>RMA16441</t>
+  </si>
+  <si>
+    <t>RMA16440</t>
+  </si>
+  <si>
+    <t>RMA16439</t>
+  </si>
+  <si>
+    <t>B3RDRT-09X3-27KS-65-RT-120V-D19-HSG</t>
+  </si>
+  <si>
+    <t>RMA16438</t>
+  </si>
+  <si>
+    <t>RMA16437</t>
+  </si>
+  <si>
+    <t>RMA16436</t>
+  </si>
+  <si>
+    <t>BLRD5-16C3-30KH-50-S-GR-CJ2-UNV-D6E</t>
+  </si>
+  <si>
+    <t>RMA16435</t>
+  </si>
+  <si>
+    <t>RMA16434</t>
+  </si>
+  <si>
+    <t>RMA16432</t>
+  </si>
+  <si>
+    <t>B3RDF-SF-AC-AC-TRM</t>
+  </si>
+  <si>
+    <t>RMA16431</t>
+  </si>
+  <si>
+    <t>RMA16430</t>
+  </si>
+  <si>
+    <t>RMA16429</t>
+  </si>
+  <si>
+    <t>MDG04-13H1-30KS-50-BL-BL-GL98-TRM</t>
+  </si>
+  <si>
+    <t>SP-435-0350-D6E</t>
+  </si>
+  <si>
+    <t>RMA16428</t>
+  </si>
+  <si>
+    <t>B4SDM-24C3-30KS-50-WH-FT-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>SK-070-6AE</t>
+  </si>
+  <si>
+    <t>B4SDM-XB-S-WH-TRM</t>
+  </si>
+  <si>
+    <t>RMA16427</t>
+  </si>
+  <si>
+    <t>RMA16426</t>
+  </si>
+  <si>
+    <t>RMA16425</t>
+  </si>
+  <si>
+    <t>RMA16424</t>
+  </si>
+  <si>
+    <t>B3SDL-15WG2-2722KH-55-NC1-120V-D3-HSG</t>
+  </si>
+  <si>
+    <t>RMA16423</t>
+  </si>
+  <si>
+    <t>RMA16422</t>
+  </si>
+  <si>
+    <t>SP-338-01-RD-M-L</t>
+  </si>
+  <si>
+    <t>RMA16421</t>
+  </si>
+  <si>
+    <t>RMA16420</t>
+  </si>
+  <si>
+    <t>B3RGF-45-S-BL-BL-TRM</t>
+  </si>
+  <si>
+    <t>RMA16419</t>
+  </si>
+  <si>
+    <t>RMA16418</t>
+  </si>
+  <si>
+    <t>RMA16417</t>
+  </si>
+  <si>
+    <t>RMA16416</t>
+  </si>
+  <si>
+    <t>B4RDF-12C3-30KH-90-NCSM-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>RMA16415</t>
+  </si>
+  <si>
+    <t>RMA16414</t>
+  </si>
+  <si>
+    <t>RMA16413</t>
+  </si>
+  <si>
+    <t>RMA16412</t>
+  </si>
+  <si>
+    <t>RMA16411</t>
+  </si>
+  <si>
+    <t>SP-234-0700-6A</t>
+  </si>
+  <si>
+    <t>SP-322-0350-4P</t>
+  </si>
+  <si>
+    <t>RMA16410</t>
+  </si>
+  <si>
+    <t>USAI-3CYD9C2-WD1-RUISWH-00</t>
+  </si>
+  <si>
+    <t>RMA16409</t>
+  </si>
+  <si>
+    <t>RMA16408</t>
+  </si>
+  <si>
+    <t>SP-234-0700-D6A</t>
+  </si>
+  <si>
+    <t>RMA16407</t>
+  </si>
+  <si>
+    <t>RMA16406</t>
+  </si>
+  <si>
+    <t>RMA16404</t>
+  </si>
+  <si>
+    <t>RMA16402</t>
+  </si>
+  <si>
+    <t>RMA16401</t>
+  </si>
+  <si>
+    <t>RMA16400</t>
+  </si>
+  <si>
+    <t>SP-501-0220-4P</t>
+  </si>
+  <si>
+    <t>RMA16399</t>
+  </si>
+  <si>
+    <t>RMA16398</t>
+  </si>
+  <si>
+    <t>RMA16397</t>
+  </si>
+  <si>
+    <t>B4SDTZ-S-GW-GW-TRM</t>
+  </si>
+  <si>
+    <t>B4SDTZ-S-SC-SC-TRM</t>
+  </si>
+  <si>
+    <t>RMA16396</t>
+  </si>
+  <si>
+    <t>SK-078</t>
+  </si>
+  <si>
+    <t>SP-349-092-20</t>
+  </si>
+  <si>
+    <t>SK-080</t>
+  </si>
+  <si>
+    <t>SP-349-092-30</t>
+  </si>
+  <si>
+    <t>SK-083-B3RDF-WH-B3RDP-GW</t>
+  </si>
+  <si>
+    <t>USAI FINISHES SAMPLE BOX</t>
+  </si>
+  <si>
+    <t>SP-349-092-15</t>
+  </si>
+  <si>
+    <t>SP-349-092-61</t>
+  </si>
+  <si>
+    <t>SK-083-B3SDP-AC-B3SCP-AC</t>
+  </si>
+  <si>
+    <t>SP-349-092-40</t>
+  </si>
+  <si>
+    <t>SP-349-092-55</t>
+  </si>
+  <si>
+    <t>SP-349-092-80</t>
+  </si>
+  <si>
+    <t>RMA16395</t>
+  </si>
+  <si>
+    <t>SP-167-0220-6E</t>
+  </si>
+  <si>
+    <t>M1SDF-09X1M-40KH-25-M0-WH-WH-RT-TRM</t>
+  </si>
+  <si>
+    <t>RMA16394</t>
+  </si>
+  <si>
+    <t>MDG04-13H1-35KS-50-BL-TRM</t>
+  </si>
+  <si>
+    <t>RMA16393</t>
+  </si>
+  <si>
+    <t>SP-120-0700-2</t>
+  </si>
+  <si>
+    <t>RMA16392</t>
+  </si>
+  <si>
+    <t>RMA16390</t>
+  </si>
+  <si>
+    <t>RMA16389</t>
+  </si>
+  <si>
+    <t>RMA16388</t>
+  </si>
+  <si>
+    <t>SP-372-0900-18</t>
+  </si>
+  <si>
+    <t>RMA16387</t>
+  </si>
+  <si>
+    <t>P3RDF-15L2-30KH-F-WH-TRM</t>
+  </si>
+  <si>
+    <t>RMA16386</t>
+  </si>
+  <si>
+    <t>RMA16385</t>
+  </si>
+  <si>
+    <t>RMA16384</t>
+  </si>
+  <si>
+    <t>RMA16383</t>
+  </si>
+  <si>
+    <t>RMA16382</t>
+  </si>
+  <si>
+    <t>SP-464-0220-19</t>
+  </si>
+  <si>
+    <t>RMA16380</t>
+  </si>
+  <si>
+    <t>RMA16379</t>
+  </si>
+  <si>
+    <t>RMA16378</t>
+  </si>
+  <si>
+    <t>PXA-95-GR</t>
+  </si>
+  <si>
+    <t>RMA16377</t>
+  </si>
+  <si>
+    <t>B4RDF-24C3-35KS-50-NC-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>RMA16376</t>
+  </si>
+  <si>
+    <t>B4SDF-24G1-40KS-90-NCSM-UNV-D6E-EM-HSG</t>
+  </si>
+  <si>
+    <t>RMA16375</t>
+  </si>
+  <si>
+    <t>B3RDL-15X3-30KH-65-FTA-UNV-D22-HSG</t>
+  </si>
+  <si>
+    <t>RMA16374</t>
+  </si>
+  <si>
+    <t>RMA16373</t>
+  </si>
+  <si>
+    <t>B4RDF-24G1-35KS-90-NC-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>RMA16371</t>
+  </si>
+  <si>
+    <t>RMA16370</t>
+  </si>
+  <si>
+    <t>RMA16369</t>
+  </si>
+  <si>
+    <t>RMA16368</t>
+  </si>
+  <si>
+    <t>RMA16367</t>
+  </si>
+  <si>
+    <t>SP-328-284-00</t>
+  </si>
+  <si>
+    <t>RMA16366</t>
+  </si>
+  <si>
+    <t>RMA16365</t>
+  </si>
+  <si>
+    <t>RMA16364</t>
+  </si>
+  <si>
+    <t>RMA16363</t>
+  </si>
+  <si>
+    <t>RMA16362</t>
+  </si>
+  <si>
+    <t>RMA16361</t>
+  </si>
+  <si>
+    <t>RMA16360</t>
+  </si>
+  <si>
+    <t>RMA16359</t>
+  </si>
+  <si>
+    <t>RMA16358</t>
+  </si>
+  <si>
+    <t>RMA16357</t>
+  </si>
+  <si>
+    <t>RMA16356</t>
+  </si>
+  <si>
+    <t>SP-251-1-350</t>
+  </si>
+  <si>
+    <t>SP-223-0350-3</t>
+  </si>
+  <si>
+    <t>RMA16354</t>
+  </si>
+  <si>
+    <t>LEM-198-32-3522KS</t>
+  </si>
+  <si>
+    <t>SP-059-0700-2</t>
+  </si>
+  <si>
+    <t>RMA16353</t>
+  </si>
+  <si>
+    <t>RMA16352</t>
+  </si>
+  <si>
+    <t>MAF06-21H1-27KH-30-BL-BL-NC-TRM</t>
+  </si>
+  <si>
+    <t>RMA16351</t>
+  </si>
+  <si>
+    <t>RMA16350</t>
+  </si>
+  <si>
+    <t>RMA16349</t>
+  </si>
+  <si>
+    <t>RMA16348</t>
+  </si>
+  <si>
+    <t>RMA16347</t>
+  </si>
+  <si>
+    <t>RMA16346</t>
+  </si>
+  <si>
+    <t>B3RDL-09X3-27KH-40-FT-UNV-D22-HSG</t>
+  </si>
+  <si>
+    <t>RMA16345</t>
+  </si>
+  <si>
+    <t>RMA16344</t>
+  </si>
+  <si>
+    <t>RMA16343</t>
+  </si>
+  <si>
+    <t>RMA16341</t>
+  </si>
+  <si>
+    <t>RMA16340</t>
+  </si>
+  <si>
+    <t>RMA16339</t>
+  </si>
+  <si>
+    <t>SP-499-ADJ-WG</t>
+  </si>
+  <si>
+    <t>RMA16338</t>
+  </si>
+  <si>
+    <t>RMA16337</t>
+  </si>
+  <si>
+    <t>RMA16336</t>
+  </si>
+  <si>
+    <t>RPM-01-09X1M-120V-D19</t>
+  </si>
+  <si>
+    <t>RMA16335</t>
+  </si>
+  <si>
+    <t>RMA16334</t>
+  </si>
+  <si>
+    <t>MAM06-21H1-35KH-30-BL-BL-RM-TRM</t>
+  </si>
+  <si>
+    <t>MAL06-21H1-35KH-30-BL-BL-RM-TRM</t>
+  </si>
+  <si>
+    <t>RMA16333</t>
+  </si>
+  <si>
+    <t>B3RAF-40-S-AC-WH-TRM</t>
+  </si>
+  <si>
+    <t>RMA16331</t>
+  </si>
+  <si>
+    <t>B3RDF-09L2-30KS-50-EC-UNV-D22-HSG</t>
+  </si>
+  <si>
+    <t>RMA16330</t>
+  </si>
+  <si>
+    <t>RMA16329</t>
+  </si>
+  <si>
+    <t>1010-B1-S-10</t>
+  </si>
+  <si>
+    <t>RMA16328</t>
+  </si>
+  <si>
+    <t>B3SDF-09X3-30KS-40-NC1-UNV-D22-HSG</t>
+  </si>
+  <si>
+    <t>3" MINI CLASSIC NC/IC/CP ROUND FLANGELESS TO MILLWORK BLACK</t>
+  </si>
+  <si>
+    <t>BEVELED MINI TRIMLESS SQ DOWNLIGHT-DIE CAST BEVEL-FROSTED LENS-WHITE</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL RT 09W CLASSIC 27K 80CRI 65° BEAM RT HSG 120V D19</t>
+  </si>
+  <si>
+    <t>BEVELED BLOCK RD 16W 3000KH-50° DL-SOLITE LENS-GREY-CJ MOUNT 48" 120-277V DIML6E</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RND DL/ADJ TRMD SOLITE FROSTED LENS -ANOD CLR MATTE BEVEL-ANOD CLEAR MATTE FLANGE TRIM</t>
+  </si>
+  <si>
+    <t>MICRO DL FOR WOODWORKS 4 CELL 13W 3000K 80 CRI 50° BLACK-BLACK GL98 TRIM</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-MICRO GRILLE VS 350mA DIML6E</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 SQ DL MLWK WHT 24W CLASSIC 30K 80CRI 50° BEAM FT HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>SAMPLE DIMMER-DIML6A AND DIML6E</t>
+  </si>
+  <si>
+    <t>BEVELED SQUARE TRML DL CROSS BAFFLE SOLITE LENS WHITE TRIM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRML 15W WARM GLOW 27-22K 90CRI 55° BEAM NC1 HSG 120V D3</t>
+  </si>
+  <si>
+    <t>3" MINI COMPLETE NC1/NCIC/NC CCP ROUND MILLWORK TO FLANGELESS</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL TRMD 45° SLOPED SOLITE CLEAR LENS BLACK BEVEL BLACK FLANGE</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 RD DL TRMD 12W CLASSIC 30K 90CRI 90° BEAM NCSM HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT SLIVERLED 700mA-D6A WGD</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT DRIVER-REPLACEMENT MINI X1/X3/WG2/CS1 NC1/NCIC/NCCP-0350mA 120V-277V DIML4P-TR</t>
+  </si>
+  <si>
+    <t>CYLINDER3 18W-WHITE-10"OAL-3022KH-50°-S-C2-RM</t>
+  </si>
+  <si>
+    <t>DRIVER - REPLACEMENT MINI X FTCT 220mA DIML4P</t>
+  </si>
+  <si>
+    <t>BEVELED TZ SQUARE TRMD DL SOLITE LENS GLOBAL WHITE TRIM</t>
+  </si>
+  <si>
+    <t>BEVELED TZ SQUARE TRMD DL SOLITE LENS CONDUIT SILVER TRIM</t>
+  </si>
+  <si>
+    <t>TRIMLESS ACOUSTICAL TILE - MINI SQUARE -  ARMSTRONG SAMPLE KIT</t>
+  </si>
+  <si>
+    <t>OPTIC REPLACEMENT-BEVELED 2.2 ADJ C3/G1-35°</t>
+  </si>
+  <si>
+    <t>USAI FINISH SAMPLE RING</t>
+  </si>
+  <si>
+    <t>OPTIC REPLACEMENT-BEVELED 2.2 ADJ C3/G1-40° WG2-45° REFL</t>
+  </si>
+  <si>
+    <t>USAI ARMSTRONG SAMPLE KIT RD FLAGE WHITE/RD TRIMLESS TILE GLOBAL WHITE</t>
+  </si>
+  <si>
+    <t>OPTIC REPLACEMENT-BEVELED 2.2 ADJ C3/G1-30°</t>
+  </si>
+  <si>
+    <t>OPTIC REPLACEMENT-BEVELED 2.2 ADJ WG2-40° X 60° REFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAI ARMSTRONG SAMPLE KIT SQ TRML TILE CLEAR ANODIZED/SQ TRML TILE CONFORT </t>
+  </si>
+  <si>
+    <t>OPTIC REPLACEMENT-BEVELED 2.2 ADJ C3/G1-50° WG2-60° REFL</t>
+  </si>
+  <si>
+    <t>OPTIC REPLACEMENT-BEVELED 2.2 ADJ C3/G1/WG2-70° REFL</t>
+  </si>
+  <si>
+    <t>OPTIC REPLACEMENT-BEVELED 2.2 ADJ C3/G1/WG2-85° REFL</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER BEVELED MINI 9W 220mA-120V-DIML6E-LU</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO SQ DL TRMD 9W 4000K 90 CRI 25° BEAM MICRO DIF LENS WHITE WHITE TRIM</t>
+  </si>
+  <si>
+    <t>MICRO DL FOR WOODWORKS 4 CELL 13W 3500K 80 CRI 50° BLACK TRIM</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 6" DL 40W 700mA 120V-277V-DIML2-TR</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NC HSG 36W 900mA 120V-277V-MOONS 0.1% DMX</t>
+  </si>
+  <si>
+    <t>BEVELED MINI PRIMARY 3" RND DNL FLANGE 15W-30KH-FLOOD-WH-TRIM</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-MINI BASIC-9W 220mA NC1/NCIC/NCCP HSG DIML19</t>
+  </si>
+  <si>
+    <t>PENDANT MOUNT P3-95" GREY FIELD CUTTABLE STEM</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 RD DL TRMD 24W CLASSIC 35K 80CRI 50°BEAM NC HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 BASIC SQ DL TRMD 24W CLASSIC 40K 80CRI 90° BEAM NCSM HSG 120-277V ELDO 1% LIN DIM EM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL TRML 15W CLASSIC 30K 90CRI 65° BEAM FTA HSG 120-277V D22</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 BASIC RD DL TRMD 24W CLASSIC 35K 80CRI 90° BEAM NC HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>OPTICS REPLACEMENT MINI X-RND WW NON DIFFUSIONREPLACEMENT</t>
+  </si>
+  <si>
+    <t>REPLACEMENT CONTROLLER-WGD 2.0 MINI NC-IC HSG 350mA W/CAP</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED MINI WGD-NC1-12W 350mA</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BEVELED 2.0 WGD/CCD 32W STD CRI 3500-2200KS</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.0 WGD/CCD/CSD 32 WATT 700mA 120V-277V DIML2 -TR</t>
+  </si>
+  <si>
+    <t>MICRO ADJUSTABLE FLANGE 6 CELL 21W 2700KH 30° BLACK-BLACK-NC TRIM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL TRML 09W CLASSIC 27K 90CRI 40° BEAM FT HSG 120-277V D22</t>
+  </si>
+  <si>
+    <t>SLIVERLED ADJ HEATSINK+HARNESS+3/FEMALE CONNECTOR</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MICRO HO-1 FIXTURE/DRIVER-9W X1M 225mA 120V D19</t>
+  </si>
+  <si>
+    <t>MICRO ADJUSTABLE MILLWORK 6 CELL 21W 3500KH 30° BLACK-BLACK-RM-TRIM</t>
+  </si>
+  <si>
+    <t>MICRO ADJUSTABLE TRIMLESS 6 CELL 21W 3500K 90 CRI 30° BLACK-BLACK RM TRIM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI ROUND DL/ADJ TRMD 25°-40° TILT SOLITE LENS -ANOD CLEAR MATTE BEVEL-WHITE FLANGE TRIM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL TRMD 09W BASIC 30K 80CRI 50° BEAM EC HSG 120-277V D22</t>
+  </si>
+  <si>
+    <t>BEVELED BASIC SQUARE DNL TRIMMED DIE CAST BEVEL-WHITE-SOLITE LENS</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRMD 09W CLASSIC 30K 80CRI 40° BEAM NC1 HSG 120-277V D22</t>
   </si>
 </sst>
 </file>
@@ -8969,11 +9650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1806"/>
+  <dimension ref="A1:I1977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1667" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1661" sqref="A1661:F1806"/>
+      <pane ySplit="1" topLeftCell="A1808" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1977" sqref="F1977"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44821,7 +45502,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
         <v>2850</v>
       </c>
@@ -44841,7 +45522,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
         <v>2850</v>
       </c>
@@ -44861,7 +45542,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1795" t="s">
         <v>2851</v>
       </c>
@@ -44881,7 +45562,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
         <v>2852</v>
       </c>
@@ -44901,7 +45582,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
         <v>2855</v>
       </c>
@@ -44921,7 +45602,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
         <v>2856</v>
       </c>
@@ -44941,7 +45622,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
         <v>2857</v>
       </c>
@@ -44961,7 +45642,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
         <v>2858</v>
       </c>
@@ -44981,7 +45662,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
         <v>2858</v>
       </c>
@@ -45001,7 +45682,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1802" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
         <v>2859</v>
       </c>
@@ -45021,7 +45702,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
         <v>2862</v>
       </c>
@@ -45041,7 +45722,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
         <v>2862</v>
       </c>
@@ -45061,7 +45742,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
         <v>2862</v>
       </c>
@@ -45081,7 +45762,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="1806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
         <v>2862</v>
       </c>
@@ -45100,6 +45781,3588 @@
       <c r="F1806" t="s">
         <v>2665</v>
       </c>
+    </row>
+    <row r="1807" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1807" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B1807" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C1807" s="1">
+        <v>24</v>
+      </c>
+      <c r="D1807" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E1807" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1807" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1807" s="1"/>
+    </row>
+    <row r="1808" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1808" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1808" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1808" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1808" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E1808" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1808" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1808" s="1"/>
+    </row>
+    <row r="1809" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1809" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B1809" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C1809" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1809" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E1809" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1809" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1809" s="1"/>
+    </row>
+    <row r="1810" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1810" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B1810" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C1810" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1810" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E1810" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1810" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1810" s="1"/>
+    </row>
+    <row r="1811" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1811" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B1811" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1811" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1811" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E1811" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1811" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1811" s="1"/>
+    </row>
+    <row r="1812" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1812" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B1812" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C1812" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1812" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E1812" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1812" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1812" s="1"/>
+    </row>
+    <row r="1813" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1813" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B1813" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1813" s="1">
+        <v>456</v>
+      </c>
+      <c r="D1813" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E1813" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1813" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1813" s="1"/>
+    </row>
+    <row r="1814" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1814" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B1814" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1814" s="1">
+        <v>60</v>
+      </c>
+      <c r="D1814" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1814" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1814" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1814" s="1"/>
+    </row>
+    <row r="1815" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1815" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B1815" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1815" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1815" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1815" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1815" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1815" s="1"/>
+    </row>
+    <row r="1816" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1816" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B1816" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C1816" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1816" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="E1816" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1816" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1816" s="1"/>
+    </row>
+    <row r="1817" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1817" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B1817" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1817" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1817" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E1817" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1817" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1817" s="1"/>
+    </row>
+    <row r="1818" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1818" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B1818" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1818" s="1">
+        <v>11</v>
+      </c>
+      <c r="D1818" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E1818" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1818" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1818" s="1"/>
+    </row>
+    <row r="1819" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1819" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B1819" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C1819" s="1">
+        <v>25</v>
+      </c>
+      <c r="D1819" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E1819" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1819" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1819" s="1"/>
+    </row>
+    <row r="1820" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1820" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B1820" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1820" s="1">
+        <v>80</v>
+      </c>
+      <c r="D1820" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1820" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1820" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1820" s="1"/>
+    </row>
+    <row r="1821" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1821" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B1821" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C1821" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1821" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E1821" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1821" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1821" s="1"/>
+    </row>
+    <row r="1822" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1822" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B1822" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1822" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1822" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1822" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1822" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1822" s="1"/>
+    </row>
+    <row r="1823" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1823" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B1823" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1823" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1823" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1823" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1823" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1823" s="1"/>
+    </row>
+    <row r="1824" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1824" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B1824" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1824" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1824" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1824" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1824" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1824" s="1"/>
+    </row>
+    <row r="1825" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1825" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B1825" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C1825" s="1">
+        <v>15</v>
+      </c>
+      <c r="D1825" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="E1825" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1825" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1825" s="1"/>
+    </row>
+    <row r="1826" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1826" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B1826" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C1826" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1826" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="E1826" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1826" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1826" s="1"/>
+    </row>
+    <row r="1827" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1827" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B1827" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1827" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1827" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="E1827" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1827" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1827" s="1"/>
+    </row>
+    <row r="1828" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1828" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B1828" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C1828" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1828" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E1828" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1828" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1828" s="1"/>
+    </row>
+    <row r="1829" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1829" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B1829" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1829" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1829" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="E1829" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1829" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1829" s="1"/>
+    </row>
+    <row r="1830" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1830" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B1830" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1830" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1830" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E1830" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1830" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1830" s="1"/>
+    </row>
+    <row r="1831" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1831" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B1831" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1831" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1831" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1831" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1831" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1831" s="1"/>
+    </row>
+    <row r="1832" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1832" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B1832" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1832" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1832" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1832" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1832" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1832" s="1"/>
+    </row>
+    <row r="1833" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1833" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B1833" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1833" s="1">
+        <v>24</v>
+      </c>
+      <c r="D1833" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1833" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1833" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1833" s="1"/>
+    </row>
+    <row r="1834" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1834" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B1834" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C1834" s="1">
+        <v>24</v>
+      </c>
+      <c r="D1834" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E1834" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1834" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1834" s="1"/>
+    </row>
+    <row r="1835" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1835" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B1835" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C1835" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1835" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E1835" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1835" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1835" s="1"/>
+    </row>
+    <row r="1836" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1836" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B1836" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C1836" s="1">
+        <v>66</v>
+      </c>
+      <c r="D1836" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="E1836" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1836" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1836" s="1"/>
+    </row>
+    <row r="1837" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1837" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B1837" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1837" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1837" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E1837" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1837" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1837" s="1"/>
+    </row>
+    <row r="1838" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1838" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B1838" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1838" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1838" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E1838" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1838" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1838" s="1"/>
+    </row>
+    <row r="1839" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1839" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B1839" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C1839" s="1">
+        <v>44</v>
+      </c>
+      <c r="D1839" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E1839" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1839" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1839" s="1"/>
+    </row>
+    <row r="1840" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1840" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B1840" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C1840" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1840" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="E1840" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1840" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1840" s="1"/>
+    </row>
+    <row r="1841" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1841" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B1841" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C1841" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1841" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E1841" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1841" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1841" s="1"/>
+    </row>
+    <row r="1842" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1842" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B1842" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C1842" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1842" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E1842" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1842" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1842" s="1"/>
+    </row>
+    <row r="1843" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1843" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B1843" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C1843" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1843" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="E1843" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1843" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1843" s="1"/>
+    </row>
+    <row r="1844" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1844" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1844" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1844" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1844" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1844" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F1844" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1844" s="1"/>
+    </row>
+    <row r="1845" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1845" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B1845" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1845" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1845" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1845" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1845" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1845" s="1"/>
+    </row>
+    <row r="1846" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1846" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B1846" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C1846" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1846" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E1846" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1846" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1846" s="1"/>
+    </row>
+    <row r="1847" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1847" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1847" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1847" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1847" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E1847" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1847" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1847" s="1"/>
+    </row>
+    <row r="1848" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1848" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1848" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1848" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1848" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1848" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1848" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1848" s="1"/>
+    </row>
+    <row r="1849" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1849" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B1849" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1849" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1849" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1849" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1849" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1849" s="1"/>
+    </row>
+    <row r="1850" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1850" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1850" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C1850" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1850" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E1850" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1850" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1850" s="1"/>
+    </row>
+    <row r="1851" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1851" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1851" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C1851" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1851" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="E1851" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1851" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1851" s="1"/>
+    </row>
+    <row r="1852" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1852" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1852" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C1852" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1852" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E1852" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1852" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1852" s="1"/>
+    </row>
+    <row r="1853" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1853" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1853" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1853" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1853" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1853" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1853" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1853" s="1"/>
+    </row>
+    <row r="1854" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1854" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1854" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C1854" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1854" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="E1854" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1854" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1854" s="1"/>
+    </row>
+    <row r="1855" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1855" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B1855" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C1855" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1855" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E1855" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1855" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1855" s="1"/>
+    </row>
+    <row r="1856" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1856" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B1856" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C1856" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1856" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E1856" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1856" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1856" s="1"/>
+    </row>
+    <row r="1857" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1857" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1857" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C1857" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1857" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E1857" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1857" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1857" s="1"/>
+    </row>
+    <row r="1858" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1858" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1858" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C1858" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1858" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="E1858" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1858" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1858" s="1"/>
+    </row>
+    <row r="1859" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1859" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1859" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1859" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1859" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1859" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1859" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1859" s="1"/>
+    </row>
+    <row r="1860" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1860" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B1860" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C1860" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1860" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E1860" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1860" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1860" s="1"/>
+    </row>
+    <row r="1861" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1861" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B1861" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1861" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1861" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1861" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1861" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1861" s="1"/>
+    </row>
+    <row r="1862" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1862" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1862" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1862" s="1">
+        <v>25</v>
+      </c>
+      <c r="D1862" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1862" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1862" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1862" s="1"/>
+    </row>
+    <row r="1863" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1863" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B1863" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1863" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1863" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1863" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1863" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1863" s="1"/>
+    </row>
+    <row r="1864" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1864" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B1864" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C1864" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1864" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="E1864" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1864" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1864" s="1"/>
+    </row>
+    <row r="1865" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1865" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B1865" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C1865" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1865" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E1865" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1865" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1865" s="1"/>
+    </row>
+    <row r="1866" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1866" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B1866" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1866" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1866" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E1866" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1866" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1866" s="1"/>
+    </row>
+    <row r="1867" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1867" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B1867" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1867" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1867" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1867" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1867" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1867" s="1"/>
+    </row>
+    <row r="1868" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1868" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1868" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C1868" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1868" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1868" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1868" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1868" s="1"/>
+    </row>
+    <row r="1869" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1869" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1869" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C1869" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1869" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E1869" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1869" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1869" s="1"/>
+    </row>
+    <row r="1870" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1870" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1870" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C1870" s="1">
+        <v>71</v>
+      </c>
+      <c r="D1870" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1870" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1870" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1870" s="1"/>
+    </row>
+    <row r="1871" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1871" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1871" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C1871" s="1">
+        <v>56</v>
+      </c>
+      <c r="D1871" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1871" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1871" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1871" s="1"/>
+    </row>
+    <row r="1872" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1872" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1872" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C1872" s="1">
+        <v>52</v>
+      </c>
+      <c r="D1872" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E1872" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1872" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1872" s="1"/>
+    </row>
+    <row r="1873" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1873" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1873" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C1873" s="1">
+        <v>162</v>
+      </c>
+      <c r="D1873" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E1873" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1873" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1873" s="1"/>
+    </row>
+    <row r="1874" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1874" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1874" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C1874" s="1">
+        <v>16</v>
+      </c>
+      <c r="D1874" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E1874" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1874" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1874" s="1"/>
+    </row>
+    <row r="1875" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1875" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1875" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C1875" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1875" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1875" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1875" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1875" s="1"/>
+    </row>
+    <row r="1876" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1876" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1876" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C1876" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1876" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1876" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1876" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1876" s="1"/>
+    </row>
+    <row r="1877" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1877" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1877" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C1877" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1877" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E1877" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1877" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1877" s="1"/>
+    </row>
+    <row r="1878" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1878" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1878" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C1878" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1878" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E1878" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1878" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1878" s="1"/>
+    </row>
+    <row r="1879" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1879" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1879" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C1879" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1879" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="E1879" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1879" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1879" s="1"/>
+    </row>
+    <row r="1880" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1880" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1880" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C1880" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1880" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E1880" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1880" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1880" s="1"/>
+    </row>
+    <row r="1881" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1881" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1881" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C1881" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1881" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="E1881" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1881" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1881" s="1"/>
+    </row>
+    <row r="1882" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1882" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1882" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C1882" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1882" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E1882" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1882" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1882" s="1"/>
+    </row>
+    <row r="1883" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1883" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1883" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C1883" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1883" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="E1883" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1883" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1883" s="1"/>
+    </row>
+    <row r="1884" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1884" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1884" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C1884" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1884" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E1884" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1884" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1884" s="1"/>
+    </row>
+    <row r="1885" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1885" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1885" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C1885" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1885" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="E1885" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1885" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1885" s="1"/>
+    </row>
+    <row r="1886" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1886" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1886" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C1886" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1886" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="E1886" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1886" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1886" s="1"/>
+    </row>
+    <row r="1887" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1887" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1887" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C1887" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1887" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E1887" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1887" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1887" s="1"/>
+    </row>
+    <row r="1888" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1888" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1888" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C1888" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1888" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E1888" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1888" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1888" s="1"/>
+    </row>
+    <row r="1889" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1889" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B1889" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C1889" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1889" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="E1889" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1889" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1889" s="1"/>
+    </row>
+    <row r="1890" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1890" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B1890" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C1890" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1890" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="E1890" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1890" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1890" s="1"/>
+    </row>
+    <row r="1891" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1891" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1891" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C1891" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1891" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E1891" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1891" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1891" s="1"/>
+    </row>
+    <row r="1892" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1892" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1892" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C1892" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1892" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E1892" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1892" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1892" s="1"/>
+    </row>
+    <row r="1893" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1893" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1893" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1893" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1893" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1893" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1893" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1893" s="1"/>
+    </row>
+    <row r="1894" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1894" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B1894" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1894" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1894" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1894" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1894" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1894" s="1"/>
+    </row>
+    <row r="1895" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1895" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1895" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1895" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1895" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1895" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1895" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1895" s="1"/>
+    </row>
+    <row r="1896" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1896" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B1896" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C1896" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1896" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="E1896" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1896" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1896" s="1"/>
+    </row>
+    <row r="1897" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1897" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B1897" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C1897" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1897" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E1897" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1897" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1897" s="1"/>
+    </row>
+    <row r="1898" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1898" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B1898" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1898" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1898" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1898" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1898" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1898" s="1"/>
+    </row>
+    <row r="1899" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1899" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B1899" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1899" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1899" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1899" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1899" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1899" s="1"/>
+    </row>
+    <row r="1900" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1900" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B1900" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1900" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1900" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1900" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1900" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1900" s="1"/>
+    </row>
+    <row r="1901" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1901" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B1901" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1901" s="1">
+        <v>25</v>
+      </c>
+      <c r="D1901" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1901" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F1901" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1901" s="1"/>
+    </row>
+    <row r="1902" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1902" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B1902" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1902" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1902" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1902" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1902" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1902" s="1"/>
+    </row>
+    <row r="1903" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1903" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B1903" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C1903" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1903" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="E1903" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1903" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1903" s="1"/>
+    </row>
+    <row r="1904" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1904" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B1904" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1904" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1904" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E1904" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1904" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1904" s="1"/>
+    </row>
+    <row r="1905" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1905" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B1905" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1905" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1905" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E1905" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1905" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1905" s="1"/>
+    </row>
+    <row r="1906" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1906" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B1906" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C1906" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1906" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E1906" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1906" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1906" s="1"/>
+    </row>
+    <row r="1907" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1907" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B1907" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C1907" s="1">
+        <v>54</v>
+      </c>
+      <c r="D1907" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E1907" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F1907" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1907" s="1"/>
+    </row>
+    <row r="1908" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1908" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B1908" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C1908" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1908" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E1908" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1908" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1908" s="1"/>
+    </row>
+    <row r="1909" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1909" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B1909" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1909" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1909" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1909" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1909" s="1"/>
+    </row>
+    <row r="1910" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1910" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B1910" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C1910" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1910" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="E1910" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1910" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1910" s="1"/>
+    </row>
+    <row r="1911" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1911" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B1911" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C1911" s="1">
+        <v>10</v>
+      </c>
+      <c r="D1911" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E1911" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F1911" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1911" s="1"/>
+    </row>
+    <row r="1912" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1912" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B1912" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C1912" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1912" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="E1912" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1912" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1912" s="1"/>
+    </row>
+    <row r="1913" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1913" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B1913" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C1913" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1913" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="E1913" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1913" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1913" s="1"/>
+    </row>
+    <row r="1914" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1914" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B1914" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C1914" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1914" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E1914" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1914" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1914" s="1"/>
+    </row>
+    <row r="1915" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1915" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B1915" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1915" s="1">
+        <v>20</v>
+      </c>
+      <c r="D1915" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1915" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1915" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1915" s="1"/>
+    </row>
+    <row r="1916" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1916" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B1916" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1916" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1916" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E1916" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1916" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1916" s="1"/>
+    </row>
+    <row r="1917" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1917" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1917" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C1917" s="1">
+        <v>9</v>
+      </c>
+      <c r="D1917" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E1917" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1917" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1917" s="1"/>
+    </row>
+    <row r="1918" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1918" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B1918" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C1918" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1918" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E1918" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1918" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1918" s="1"/>
+    </row>
+    <row r="1919" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1919" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B1919" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1919" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1919" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1919" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F1919" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1919" s="1"/>
+    </row>
+    <row r="1920" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1920" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B1920" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C1920" s="1">
+        <v>12</v>
+      </c>
+      <c r="D1920" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E1920" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1920" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1920" s="1"/>
+    </row>
+    <row r="1921" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1921" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B1921" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1921" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1921" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1921" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1921" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1921" s="1"/>
+    </row>
+    <row r="1922" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1922" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1922" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1922" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1922" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E1922" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1922" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1922" s="1"/>
+    </row>
+    <row r="1923" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1923" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B1923" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1923" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1923" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1923" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1923" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1923" s="1"/>
+    </row>
+    <row r="1924" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1924" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B1924" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1924" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1924" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E1924" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1924" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1924" s="1"/>
+    </row>
+    <row r="1925" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1925" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B1925" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1925" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1925" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E1925" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1925" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1925" s="1"/>
+    </row>
+    <row r="1926" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1926" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B1926" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1926" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1926" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1926" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1926" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1926" s="1"/>
+    </row>
+    <row r="1927" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1927" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B1927" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1927" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1927" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1927" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1927" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1927" s="1"/>
+    </row>
+    <row r="1928" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1928" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B1928" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1928" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1928" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1928" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1928" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1928" s="1"/>
+    </row>
+    <row r="1929" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1929" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B1929" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C1929" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1929" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E1929" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1929" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1929" s="1"/>
+    </row>
+    <row r="1930" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1930" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1930" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1930" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1930" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1930" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1930" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1930" s="1"/>
+    </row>
+    <row r="1931" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1931" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B1931" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1931" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1931" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1931" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1931" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1931" s="1"/>
+    </row>
+    <row r="1932" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1932" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B1932" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1932" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1932" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1932" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1932" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1932" s="1"/>
+    </row>
+    <row r="1933" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1933" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B1933" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1933" s="1">
+        <v>7</v>
+      </c>
+      <c r="D1933" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1933" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1933" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1933" s="1"/>
+    </row>
+    <row r="1934" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1934" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B1934" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1934" s="1">
+        <v>7</v>
+      </c>
+      <c r="D1934" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1934" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1934" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1934" s="1"/>
+    </row>
+    <row r="1935" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1935" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B1935" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C1935" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1935" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E1935" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1935" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1935" s="1"/>
+    </row>
+    <row r="1936" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1936" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B1936" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1936" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1936" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1936" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1936" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1936" s="1"/>
+    </row>
+    <row r="1937" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1937" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B1937" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C1937" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1937" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E1937" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1937" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1937" s="1"/>
+    </row>
+    <row r="1938" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1938" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B1938" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C1938" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1938" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E1938" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1938" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1938" s="1"/>
+    </row>
+    <row r="1939" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1939" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B1939" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C1939" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1939" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="E1939" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1939" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1939" s="1"/>
+    </row>
+    <row r="1940" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1940" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B1940" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C1940" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1940" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="E1940" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1940" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1940" s="1"/>
+    </row>
+    <row r="1941" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1941" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B1941" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C1941" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1941" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E1941" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1941" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1941" s="1"/>
+    </row>
+    <row r="1942" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1942" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B1942" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1942" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1942" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1942" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1942" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1942" s="1"/>
+    </row>
+    <row r="1943" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1943" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B1943" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C1943" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1943" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="E1943" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1943" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1943" s="1"/>
+    </row>
+    <row r="1944" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1944" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1944" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1944" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1944" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1944" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1944" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1944" s="1"/>
+    </row>
+    <row r="1945" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1945" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B1945" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1945" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1945" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E1945" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1945" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1945" s="1"/>
+    </row>
+    <row r="1946" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1946" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B1946" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1946" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1946" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1946" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1946" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1946" s="1"/>
+    </row>
+    <row r="1947" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1947" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1947" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C1947" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1947" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E1947" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1947" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1947" s="1"/>
+    </row>
+    <row r="1948" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1948" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1948" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1948" s="1">
+        <v>50</v>
+      </c>
+      <c r="D1948" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1948" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1948" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1948" s="1"/>
+    </row>
+    <row r="1949" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1949" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B1949" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1949" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1949" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1949" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1949" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1949" s="1"/>
+    </row>
+    <row r="1950" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1950" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1950" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1950" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1950" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1950" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1950" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1950" s="1"/>
+    </row>
+    <row r="1951" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1951" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1951" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C1951" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1951" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E1951" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1951" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1951" s="1"/>
+    </row>
+    <row r="1952" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1952" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B1952" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C1952" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1952" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="E1952" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1952" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1952" s="1"/>
+    </row>
+    <row r="1953" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1953" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B1953" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1953" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1953" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1953" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1953" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1953" s="1"/>
+    </row>
+    <row r="1954" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1954" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B1954" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C1954" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1954" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E1954" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1954" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1954" s="1"/>
+    </row>
+    <row r="1955" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1955" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1955" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1955" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1955" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1955" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1955" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1955" s="1"/>
+    </row>
+    <row r="1956" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1956" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1956" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1956" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1956" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1956" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1956" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1956" s="1"/>
+    </row>
+    <row r="1957" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1957" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1957" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1957" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1957" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E1957" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1957" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1957" s="1"/>
+    </row>
+    <row r="1958" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1958" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B1958" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1958" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1958" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1958" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1958" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1958" s="1"/>
+    </row>
+    <row r="1959" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1959" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B1959" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1959" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1959" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1959" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1959" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1959" s="1"/>
+    </row>
+    <row r="1960" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1960" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B1960" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C1960" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1960" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E1960" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1960" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1960" s="1"/>
+    </row>
+    <row r="1961" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1961" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B1961" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C1961" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1961" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="E1961" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1961" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1961" s="1"/>
+    </row>
+    <row r="1962" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1962" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B1962" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C1962" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1962" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E1962" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1962" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1962" s="1"/>
+    </row>
+    <row r="1963" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1963" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B1963" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1963" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1963" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1963" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1963" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1963" s="1"/>
+    </row>
+    <row r="1964" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1964" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B1964" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C1964" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1964" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E1964" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1964" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1964" s="1"/>
+    </row>
+    <row r="1965" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1965" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1965" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1965" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1965" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1965" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1965" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1965" s="1"/>
+    </row>
+    <row r="1966" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1966" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1966" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1966" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1966" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1966" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1966" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1966" s="1"/>
+    </row>
+    <row r="1967" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1967" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B1967" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C1967" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1967" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="E1967" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1967" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1967" s="1"/>
+    </row>
+    <row r="1968" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1968" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1968" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1968" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1968" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1968" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1968" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1968" s="1"/>
+    </row>
+    <row r="1969" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1969" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B1969" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C1969" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1969" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E1969" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1969" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1969" s="1"/>
+    </row>
+    <row r="1970" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1970" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B1970" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C1970" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1970" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E1970" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1970" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1970" s="1"/>
+    </row>
+    <row r="1971" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1971" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B1971" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C1971" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1971" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="E1971" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1971" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1971" s="1"/>
+    </row>
+    <row r="1972" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1972" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1972" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C1972" s="1">
+        <v>7</v>
+      </c>
+      <c r="D1972" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="E1972" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1972" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1972" s="1"/>
+    </row>
+    <row r="1973" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1973" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1973" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1973" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1973" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E1973" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1973" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1973" s="1"/>
+    </row>
+    <row r="1974" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1974" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1974" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1974" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1974" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1974" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1974" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1974" s="1"/>
+    </row>
+    <row r="1975" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1975" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1975" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C1975" s="1">
+        <v>11</v>
+      </c>
+      <c r="D1975" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="E1975" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F1975" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1975" s="1"/>
+    </row>
+    <row r="1976" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1976" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B1976" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C1976" s="1">
+        <v>17</v>
+      </c>
+      <c r="D1976" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="F1976" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1976" s="1"/>
+    </row>
+    <row r="1977" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1977" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B1977" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1977" s="1">
+        <v>17</v>
+      </c>
+      <c r="D1977" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F1977" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="I1977" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
